--- a/planszo_kreator.xlsx
+++ b/planszo_kreator.xlsx
@@ -9,28 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plansza00" sheetId="1" r:id="rId1"/>
-    <sheet name="Plansza01" sheetId="2" r:id="rId2"/>
-    <sheet name="Plansza02" sheetId="3" r:id="rId3"/>
-    <sheet name="Plansza10" sheetId="4" r:id="rId4"/>
-    <sheet name="Plansza11" sheetId="5" r:id="rId5"/>
-    <sheet name="Plansza_12" sheetId="6" r:id="rId6"/>
-    <sheet name="Plansza20" sheetId="7" r:id="rId7"/>
-    <sheet name="Plansza21" sheetId="8" r:id="rId8"/>
-    <sheet name="Plansza22" sheetId="9" r:id="rId9"/>
-    <sheet name="Plansza_czysta" sheetId="10" r:id="rId10"/>
-    <sheet name="wyliczenia_ciosu_specjalnego" sheetId="11" r:id="rId11"/>
-    <sheet name="Arkusz3" sheetId="12" r:id="rId12"/>
+    <sheet name="Plansza00old" sheetId="1" r:id="rId1"/>
+    <sheet name="Plansza00" sheetId="13" r:id="rId2"/>
+    <sheet name="Plansza01" sheetId="2" r:id="rId3"/>
+    <sheet name="Plansza02" sheetId="3" r:id="rId4"/>
+    <sheet name="Plansza10" sheetId="4" r:id="rId5"/>
+    <sheet name="Plansza11" sheetId="5" r:id="rId6"/>
+    <sheet name="Plansza_12" sheetId="6" r:id="rId7"/>
+    <sheet name="Plansza20" sheetId="7" r:id="rId8"/>
+    <sheet name="Plansza21" sheetId="8" r:id="rId9"/>
+    <sheet name="Plansza22" sheetId="9" r:id="rId10"/>
+    <sheet name="Plansza_czysta" sheetId="10" r:id="rId11"/>
+    <sheet name="wyliczenia_ciosu_specjalnego" sheetId="11" r:id="rId12"/>
+    <sheet name="Arkusz3" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="25">
   <si>
     <t>plansza</t>
   </si>
@@ -100,6 +101,12 @@
   <si>
     <t>111 – jezioro prawo</t>
   </si>
+  <si>
+    <t>PLANSZA</t>
+  </si>
+  <si>
+    <t>1 - piasek</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$zł-415];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +149,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -169,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -272,6 +287,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -287,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,6 +356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bez tytułu1" xfId="1"/>
@@ -311,7 +377,15 @@
     <cellStyle name="Result" xfId="6"/>
     <cellStyle name="Result2" xfId="7"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF333333"/>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -325,6 +399,70 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF333333"/>
           <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF333333"/>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF333333"/>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -800,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,12 +1722,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1606,7 +1744,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,14 +1782,14 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,0,0,0,0),(2,0,0,1,0,0),(2,0,0,2,0,0),(2,0,0,3,0,0),(2,0,0,4,0,0),(2,0,0,5,0,0),(2,0,0,6,0,0),(2,0,0,7,0,0),(2,0,0,8,0,0),(2,0,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,0,0,0,0),(2,2,0,1,0,0),(2,2,0,2,0,0),(2,2,0,3,0,0),(2,2,0,4,0,0),(2,2,0,5,0,0),(2,2,0,6,0,0),(2,2,0,7,0,0),(2,2,0,8,0,0),(2,2,0,9,102,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1659,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -1674,20 +1812,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,1,0,0,0),(2,0,1,1,0,0),(2,0,1,2,0,0),(2,0,1,3,0,0),(2,0,1,4,0,0),(2,0,1,5,0,0),(2,0,1,6,0,0),(2,0,1,7,0,0),(2,0,1,8,0,0),(2,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,1,0,0,0),(2,2,1,1,101,0),(2,2,1,2,0,0),(2,2,1,3,0,0),(2,2,1,4,0,0),(2,2,1,5,0,0),(2,2,1,6,102,0),(2,2,1,7,100,0),(2,2,1,8,0,0),(2,2,1,9,103,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1719,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,2,0,0,0),(2,0,2,1,0,0),(2,0,2,2,0,0),(2,0,2,3,0,0),(2,0,2,4,0,0),(2,0,2,5,0,0),(2,0,2,6,0,0),(2,0,2,7,0,0),(2,0,2,8,0,0),(2,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,2,0,0,0),(2,2,2,1,0,0),(2,2,2,2,0,0),(2,2,2,3,0,0),(2,2,2,4,100,0),(2,2,2,5,0,0),(2,2,2,6,0,0),(2,2,2,7,0,0),(2,2,2,8,0,0),(2,2,2,9,100,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1734,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -1746,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -1755,11 +1893,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,3,0,0,0),(2,0,3,1,0,0),(2,0,3,2,0,0),(2,0,3,3,0,0),(2,0,3,4,0,0),(2,0,3,5,0,0),(2,0,3,6,0,0),(2,0,3,7,0,0),(2,0,3,8,0,0),(2,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,3,0,0,0),(2,2,3,1,0,0),(2,2,3,2,102,0),(2,2,3,3,0,0),(2,2,3,4,0,0),(2,2,3,5,0,0),(2,2,3,6,100,0),(2,2,3,7,0,0),(2,2,3,8,0,2),(2,2,3,9,100,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1782,70 +1920,70 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,4,0,0,0),(2,0,4,1,0,0),(2,0,4,2,0,0),(2,0,4,3,0,0),(2,0,4,4,0,0),(2,0,4,5,0,0),(2,0,4,6,0,0),(2,0,4,7,0,0),(2,0,4,8,0,0),(2,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,4,0,0,0),(2,2,4,1,0,0),(2,2,4,2,103,0),(2,2,4,3,102,0),(2,2,4,4,0,2),(2,2,4,5,0,0),(2,2,4,6,102,0),(2,2,4,7,101,0),(2,2,4,8,0,0),(2,2,4,9,101,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,5,0,0,0),(2,0,5,1,0,0),(2,0,5,2,0,0),(2,0,5,3,0,0),(2,0,5,4,0,0),(2,0,5,5,0,0),(2,0,5,6,0,0),(2,0,5,7,0,0),(2,0,5,8,0,0),(2,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,5,0,102,0),(2,2,5,1,103,0),(2,2,5,2,103,0),(2,2,5,3,101,0),(2,2,5,4,0,0),(2,2,5,5,101,0),(2,2,5,6,103,0),(2,2,5,7,0,0),(2,2,5,8,100,0),(2,2,5,9,102,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>103</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1854,59 +1992,59 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,6,0,0,0),(2,0,6,1,0,0),(2,0,6,2,0,0),(2,0,6,3,0,0),(2,0,6,4,0,0),(2,0,6,5,0,0),(2,0,6,6,0,0),(2,0,6,7,0,0),(2,0,6,8,0,0),(2,0,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,6,0,100,0),(2,2,6,1,103,0),(2,2,6,2,101,0),(2,2,6,3,0,0),(2,2,6,4,0,0),(2,2,6,5,100,0),(2,2,6,6,0,0),(2,2,6,7,103,0),(2,2,6,8,105,0),(2,2,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,7,0,0,0),(2,0,7,1,0,0),(2,0,7,2,0,0),(2,0,7,3,0,0),(2,0,7,4,0,0),(2,0,7,5,0,0),(2,0,7,6,0,0),(2,0,7,7,0,0),(2,0,7,8,0,0),(2,0,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,7,0,101,0),(2,2,7,1,0,0),(2,2,7,2,100,0),(2,2,7,3,102,0),(2,2,7,4,103,0),(2,2,7,5,102,0),(2,2,7,6,103,0),(2,2,7,7,0,0),(2,2,7,8,103,0),(2,2,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1926,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -1942,7 +2080,7 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,8,0,0,0),(2,0,8,1,0,0),(2,0,8,2,0,0),(2,0,8,3,0,0),(2,0,8,4,0,0),(2,0,8,5,0,0),(2,0,8,6,0,0),(2,0,8,7,0,0),(2,0,8,8,0,0),(2,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,8,0,0,0),(2,2,8,1,101,0),(2,2,8,2,101,0),(2,2,8,3,0,0),(2,2,8,4,0,0),(2,2,8,5,102,0),(2,2,8,6,100,0),(2,2,8,7,0,0),(2,2,8,8,0,0),(2,2,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1956,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -1968,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -1978,7 +2116,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,9,0,0,0),(2,0,9,1,0,0),(2,0,9,2,0,0),(2,0,9,3,0,0),(2,0,9,4,0,0),(2,0,9,5,0,0),(2,0,9,6,0,0),(2,0,9,7,0,0),(2,0,9,8,0,0),(2,0,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,9,0,0,0),(2,2,9,1,0,0),(2,2,9,2,0,0),(2,2,9,3,101,0),(2,2,9,4,0,0),(2,2,9,5,0,0),(2,2,9,6,0,0),(2,2,9,7,101,0),(2,2,9,8,0,0),(2,2,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1997,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2154,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
@@ -2180,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -2235,9 +2373,6 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -2270,9 +2405,6 @@
       <c r="J21" s="6">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -2304,9 +2436,6 @@
       </c>
       <c r="J22" s="6">
         <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,12 +2530,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2420,6 +2549,1146 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="16" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-4&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-4&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-4&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-4&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-4&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-4&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-4&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-4&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-4&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-4&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,0,0),(0,0,1,1,1,0,0),(0,0,1,2,1,0,0),(0,0,1,3,1,0,0),(0,0,1,4,1,0,0),(0,0,1,5,1,0,0),(0,0,1,6,1,0,0),(0,0,1,7,1,0,0),(0,0,1,8,1,0,0),(0,0,1,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-4&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-4&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-4&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-4&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-4&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-4&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-4&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-4&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-4&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-4&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,0,0),(0,0,2,1,1,0,0),(0,0,2,2,1,0,0),(0,0,2,3,1,0,0),(0,0,2,4,1,0,0),(0,0,2,5,1,0,0),(0,0,2,6,1,0,0),(0,0,2,7,1,0,0),(0,0,2,8,1,0,0),(0,0,2,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,0,0),(0,0,3,1,1,0,0),(0,0,3,2,1,0,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,0,0),(0,0,3,7,1,0,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,0,0),(0,0,4,1,1,0,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,0,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,0),(0,0,4,7,1,0,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,0,0),(0,0,5,1,1,0,0),(0,0,5,2,1,0,0),(0,0,5,3,1,0,0),(0,0,5,4,1,0,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,0,0),(0,0,6,1,1,0,0),(0,0,6,2,1,0,0),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,0,0),(0,0,7,1,1,0,0),(0,0,7,2,1,0,0),(0,0,7,3,1,0,0),(0,0,7,4,1,0,0),(0,0,7,5,1,0,0),(0,0,7,6,1,0,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,0,0),(0,0,8,1,1,0,0),(0,0,8,2,1,0,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,0),(0,0,8,5,1,0,0),(0,0,8,6,1,0,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,0,0),(0,0,9,1,1,0,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,10,0,1,0,0),(0,0,10,1,1,0,0),(0,0,10,2,1,0,0),(0,0,10,3,1,0,0),(0,0,10,4,1,0,0),(0,0,10,5,1,0,0),(0,0,10,6,1,0,0),(0,0,10,7,1,0,0),(0,0,10,8,1,0,0),(0,0,10,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A27:J36">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>A16&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:J25">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CStrona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2597,7 +3866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2618,803 +3887,1137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="3.25" customWidth="1"/>
-    <col min="11" max="16" width="10.75" customWidth="1"/>
+    <col min="1" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="16" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-4&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-4&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-4&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-4&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-4&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-4&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-4&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-4&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-4&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-4&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,104,0),(0,0,1,1,1,102,0),(0,0,1,2,1,101,0),(0,0,1,3,1,102,0),(0,0,1,4,1,101,0),(0,0,1,5,1,104,0),(0,0,1,6,1,102,0),(0,0,1,7,1,101,0),(0,0,1,8,1,102,0),(0,0,1,9,1,100,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-4&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-4&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-4&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-4&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-4&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-4&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-4&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-4&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-4&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-4&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,103,0),(0,0,2,1,1,103,0),(0,0,2,2,1,100,0),(0,0,2,3,1,101,0),(0,0,2,4,1,106,0),(0,0,2,5,1,107,0),(0,0,2,6,1,103,0),(0,0,2,7,1,101,0),(0,0,2,8,1,102,0),(0,0,2,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,102,0),(0,0,3,1,1,101,0),(0,0,3,2,1,104,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,103,0),(0,0,3,7,1,104,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,103,0),(0,0,4,1,1,102,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,0,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,1),(0,0,4,7,1,103,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,101,0),(0,0,5,1,1,100,0),(0,0,5,2,1,0,0),(0,0,5,3,1,0,0),(0,0,5,4,1,105,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,100,0),(0,0,6,1,1,100,0),(0,0,6,2,1,102,0),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,100,0),(0,0,7,1,1,100,0),(0,0,7,2,1,0,1),(0,0,7,3,1,0,0),(0,0,7,4,1,0,0),(0,0,7,5,1,0,0),(0,0,7,6,1,0,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,101,0),(0,0,8,1,1,101,0),(0,0,8,2,1,104,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,1),(0,0,8,5,1,103,0),(0,0,8,6,1,102,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,101,0),(0,0,9,1,1,103,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,10,0,1,103,0),(0,0,10,1,1,0,0),(0,0,10,2,1,0,0),(0,0,10,3,1,0,0),(0,0,10,4,1,0,0),(0,0,10,5,1,0,0),(0,0,10,6,1,0,0),(0,0,10,7,1,0,0),(0,0,10,8,1,0,0),(0,0,10,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2">
         <v>102</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C16" s="2">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2">
         <v>102</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E16" s="2">
         <v>101</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F16" s="2">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2">
+        <v>102</v>
+      </c>
+      <c r="H16" s="2">
+        <v>101</v>
+      </c>
+      <c r="I16" s="2">
+        <v>102</v>
+      </c>
+      <c r="J16" s="3">
         <v>100</v>
       </c>
-      <c r="E1" s="2">
+      <c r="L16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>103</v>
       </c>
-      <c r="F1" s="2">
+      <c r="B17" s="5">
+        <v>103</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
         <v>101</v>
       </c>
-      <c r="G1" s="2">
+      <c r="E17" s="5">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5">
+        <v>107</v>
+      </c>
+      <c r="G17" s="5">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5">
+        <v>101</v>
+      </c>
+      <c r="I17" s="5">
         <v>102</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>102</v>
       </c>
-      <c r="I1" s="2">
+      <c r="B18" s="5">
+        <v>101</v>
+      </c>
+      <c r="C18" s="5">
+        <v>104</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5">
+        <v>104</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5">
         <v>102</v>
       </c>
-      <c r="J1" s="3">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>101</v>
       </c>
-      <c r="M1" s="11">
+      <c r="B20" s="5">
         <v>100</v>
       </c>
-      <c r="P1" t="str">
-        <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,0,0,102,0),(0,1,0,1,102,0),(0,1,0,2,101,0),(0,1,0,3,100,0),(0,1,0,4,103,0),(0,1,0,5,101,0),(0,1,0,6,102,0),(0,1,0,7,102,0),(0,1,0,8,102,0),(0,1,0,9,101,0);</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5">
+        <v>102</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>101</v>
       </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B23" s="5">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5">
         <v>104</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,1,0,0,0),(0,1,1,1,101,0),(0,1,1,2,100,0),(0,1,1,3,104,0),(0,1,1,4,0,0),(0,1,1,5,0,0),(0,1,1,6,0,0),(0,1,1,7,0,0),(0,1,1,8,0,0),(0,1,1,9,0,0);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>103</v>
+      </c>
+      <c r="G23" s="5">
         <v>102</v>
       </c>
-      <c r="E3" s="5">
-        <v>102</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>101</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,2,0,0,0),(0,1,2,1,0,0),(0,1,2,2,0,0),(0,1,2,3,102,0),(0,1,2,4,102,0),(0,1,2,5,0,0),(0,1,2,6,0,0),(0,1,2,7,0,0),(0,1,2,8,101,0),(0,1,2,9,0,0);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>101</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,3,0,0,0),(0,1,3,1,0,0),(0,1,3,2,0,0),(0,1,3,3,101,0),(0,1,3,4,0,0),(0,1,3,5,0,0),(0,1,3,6,0,0),(0,1,3,7,0,0),(0,1,3,8,0,0),(0,1,3,9,0,0);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>101</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,4,0,0,0),(0,1,4,1,0,0),(0,1,4,2,0,0),(0,1,4,3,0,0),(0,1,4,4,0,0),(0,1,4,5,0,0),(0,1,4,6,0,0),(0,1,4,7,0,0),(0,1,4,8,101,0),(0,1,4,9,0,0);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="B24" s="5">
         <v>103</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,5,0,0,0),(0,1,5,1,0,0),(0,1,5,2,0,0),(0,1,5,3,0,0),(0,1,5,4,0,0),(0,1,5,5,103,0),(0,1,5,6,0,0),(0,1,5,7,0,0),(0,1,5,8,0,0),(0,1,5,9,0,0);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>101</v>
-      </c>
-      <c r="F7" s="5">
-        <v>102</v>
-      </c>
-      <c r="G7" s="5">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,6,0,0,0),(0,1,6,1,0,0),(0,1,6,2,0,0),(0,1,6,3,0,0),(0,1,6,4,101,0),(0,1,6,5,102,0),(0,1,6,6,104,0),(0,1,6,7,0,0),(0,1,6,8,0,0),(0,1,6,9,0,0);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,7,0,0,0),(0,1,7,1,0,0),(0,1,7,2,0,0),(0,1,7,3,0,0),(0,1,7,4,0,0),(0,1,7,5,102,0),(0,1,7,6,0,0),(0,1,7,7,0,0),(0,1,7,8,0,0),(0,1,7,9,0,0);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>103</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,8,0,0,0),(0,1,8,1,103,0),(0,1,8,2,0,0),(0,1,8,3,0,0),(0,1,8,4,0,0),(0,1,8,5,0,0),(0,1,8,6,0,0),(0,1,8,7,0,0),(0,1,8,8,0,0),(0,1,8,9,0,0);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>0</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,9,0,0,0),(0,1,9,1,0,0),(0,1,9,2,0,0),(0,1,9,3,0,0),(0,1,9,4,0,0),(0,1,9,5,0,0),(0,1,9,6,0,0),(0,1,9,7,0,0),(0,1,9,8,0,0),(0,1,9,9,0,0);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M14" t="s">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>0</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>19</v>
+    </row>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+  <conditionalFormatting sqref="A27:J36">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>A16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>A1&gt;0</formula>
+  <conditionalFormatting sqref="A16:J25">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CStrona &amp;P</oddFooter>
@@ -3426,51 +5029,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="3.25" customWidth="1"/>
+    <col min="1" max="10" width="3.75" customWidth="1"/>
     <col min="11" max="16" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2">
         <v>101</v>
       </c>
-      <c r="B1" s="2">
+      <c r="D1" s="2">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2">
         <v>103</v>
       </c>
-      <c r="C1" s="2">
-        <v>103</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="F1" s="2">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2">
         <v>102</v>
       </c>
-      <c r="E1" s="2">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
       <c r="H1" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2">
         <v>102</v>
       </c>
       <c r="J1" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,0,0,101,0),(0,2,0,1,103,0),(0,2,0,2,103,0),(0,2,0,3,102,0),(0,2,0,4,100,0),(0,2,0,5,103,0),(0,2,0,6,103,0),(0,2,0,7,103,0),(0,2,0,8,102,0),(0,2,0,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,0,0,102,0),(0,1,0,1,102,0),(0,1,0,2,101,0),(0,1,0,3,100,0),(0,1,0,4,103,0),(0,1,0,5,101,0),(0,1,0,6,102,0),(0,1,0,7,102,0),(0,1,0,8,102,0),(0,1,0,9,101,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3478,19 +5083,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -3502,11 +5107,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,1,0,0,0),(0,2,1,1,0,0),(0,2,1,2,0,0),(0,2,1,3,101,0),(0,2,1,4,100,0),(0,2,1,5,101,0),(0,2,1,6,0,3),(0,2,1,7,0,0),(0,2,1,8,0,0),(0,2,1,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,1,0,0,0),(0,1,1,1,101,0),(0,1,1,2,100,0),(0,1,1,3,104,0),(0,1,1,4,0,0),(0,1,1,5,0,0),(0,1,1,6,0,0),(0,1,1,7,0,0),(0,1,1,8,0,0),(0,1,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3520,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3535,14 +5140,14 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J3" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,2,0,0,0),(0,2,2,1,0,0),(0,2,2,2,0,0),(0,2,2,3,0,0),(0,2,2,4,103,0),(0,2,2,5,103,0),(0,2,2,6,0,3),(0,2,2,7,0,0),(0,2,2,8,0,0),(0,2,2,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,2,0,0,0),(0,1,2,1,0,0),(0,1,2,2,0,0),(0,1,2,3,102,0),(0,1,2,4,102,0),(0,1,2,5,0,0),(0,1,2,6,0,0),(0,1,2,7,0,0),(0,1,2,8,101,0),(0,1,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3553,19 +5158,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>101</v>
       </c>
       <c r="E4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -3574,11 +5179,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,3,0,0,0),(0,2,3,1,0,0),(0,2,3,2,102,0),(0,2,3,3,101,0),(0,2,3,4,102,0),(0,2,3,5,103,0),(0,2,3,6,103,0),(0,2,3,7,0,0),(0,2,3,8,0,0),(0,2,3,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,3,0,0,0),(0,1,3,1,0,0),(0,1,3,2,0,0),(0,1,3,3,101,0),(0,1,3,4,0,0),(0,1,3,5,0,0),(0,1,3,6,0,0),(0,1,3,7,0,0),(0,1,3,8,0,0),(0,1,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -3607,17 +5212,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J5" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,4,0,0,0),(0,2,4,1,0,0),(0,2,4,2,0,0),(0,2,4,3,0,0),(0,2,4,4,103,0),(0,2,4,5,0,0),(0,2,4,6,0,0),(0,2,4,7,0,0),(0,2,4,8,0,0),(0,2,4,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,4,0,0,0),(0,1,4,1,0,0),(0,1,4,2,0,0),(0,1,4,3,0,0),(0,1,4,4,0,0),(0,1,4,5,0,0),(0,1,4,6,0,0),(0,1,4,7,0,0),(0,1,4,8,101,0),(0,1,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -3649,11 +5254,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,5,0,0,0),(0,2,5,1,0,0),(0,2,5,2,0,0),(0,2,5,3,0,0),(0,2,5,4,102,0),(0,2,5,5,0,0),(0,2,5,6,0,0),(0,2,5,7,0,0),(0,2,5,8,0,0),(0,2,5,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,5,0,0,0),(0,1,5,1,0,0),(0,1,5,2,0,0),(0,1,5,3,0,0),(0,1,5,4,0,0),(0,1,5,5,103,0),(0,1,5,6,0,0),(0,1,5,7,0,0),(0,1,5,8,0,0),(0,1,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,32 +5269,32 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>101</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G7" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,6,0,0,0),(0,2,6,1,0,0),(0,2,6,2,101,0),(0,2,6,3,0,0),(0,2,6,4,0,0),(0,2,6,5,0,0),(0,2,6,6,103,0),(0,2,6,7,101,0),(0,2,6,8,0,0),(0,2,6,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,6,0,0,0),(0,1,6,1,0,0),(0,1,6,2,0,0),(0,1,6,3,0,0),(0,1,6,4,101,0),(0,1,6,5,102,0),(0,1,6,6,104,0),(0,1,6,7,0,0),(0,1,6,8,0,0),(0,1,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3709,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -3721,11 +5326,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,7,0,0,0),(0,2,7,1,0,0),(0,2,7,2,0,0),(0,2,7,3,0,0),(0,2,7,4,0,0),(0,2,7,5,0,0),(0,2,7,6,0,0),(0,2,7,7,0,0),(0,2,7,8,0,0),(0,2,7,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,7,0,0,0),(0,1,7,1,0,0),(0,1,7,2,0,0),(0,1,7,3,0,0),(0,1,7,4,0,0),(0,1,7,5,102,0),(0,1,7,6,0,0),(0,1,7,7,0,0),(0,1,7,8,0,0),(0,1,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3733,19 +5338,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -3757,11 +5362,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,8,0,0,0),(0,2,8,1,0,0),(0,2,8,2,104,0),(0,2,8,3,103,0),(0,2,8,4,101,0),(0,2,8,5,101,0),(0,2,8,6,0,0),(0,2,8,7,0,0),(0,2,8,8,0,0),(0,2,8,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,8,0,0,0),(0,1,8,1,103,0),(0,1,8,2,0,0),(0,1,8,3,0,0),(0,1,8,4,0,0),(0,1,8,5,0,0),(0,1,8,6,0,0),(0,1,8,7,0,0),(0,1,8,8,0,0),(0,1,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,11 +5398,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,9,0,0,0),(0,2,9,1,0,0),(0,2,9,2,0,0),(0,2,9,3,0,0),(0,2,9,4,0,0),(0,2,9,5,0,0),(0,2,9,6,0,0),(0,2,9,7,0,0),(0,2,9,8,0,0),(0,2,9,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,1,9,0,0,0),(0,1,9,1,0,0),(0,1,9,2,0,0),(0,1,9,3,0,0),(0,1,9,4,0,0),(0,1,9,5,0,0),(0,1,9,6,0,0),(0,1,9,7,0,0),(0,1,9,8,0,0),(0,1,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3816,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3891,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -3929,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -4211,12 +5816,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4242,64 +5847,64 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2">
         <v>102</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
       <c r="E1" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,0,0,102,0),(1,0,0,1,0,0),(1,0,0,2,0,0),(1,0,0,3,0,0),(1,0,0,4,0,0),(1,0,0,5,0,0),(1,0,0,6,0,0),(1,0,0,7,0,0),(1,0,0,8,0,0),(1,0,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,0,0,101,0),(0,2,0,1,103,0),(0,2,0,2,103,0),(0,2,0,3,102,0),(0,2,0,4,100,0),(0,2,0,5,103,0),(0,2,0,6,103,0),(0,2,0,7,103,0),(0,2,0,8,102,0),(0,2,0,9,100,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G2" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -4308,52 +5913,52 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,1,0,100,0),(1,0,1,1,0,0),(1,0,1,2,0,0),(1,0,1,3,0,0),(1,0,1,4,0,0),(1,0,1,5,0,0),(1,0,1,6,104,0),(1,0,1,7,0,0),(1,0,1,8,0,0),(1,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,1,0,0,0),(0,2,1,1,0,0),(0,2,1,2,0,0),(0,2,1,3,101,0),(0,2,1,4,100,0),(0,2,1,5,101,0),(0,2,1,6,0,3),(0,2,1,7,0,0),(0,2,1,8,0,0),(0,2,1,9,102,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>103</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>103</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>101</v>
-      </c>
       <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>103</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,2,0,102,0),(1,0,2,1,103,0),(1,0,2,2,0,0),(1,0,2,3,103,0),(1,0,2,4,0,0),(1,0,2,5,101,0),(1,0,2,6,103,0),(1,0,2,7,0,0),(1,0,2,8,0,0),(1,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,2,0,0,0),(0,2,2,1,0,0),(0,2,2,2,0,0),(0,2,2,3,0,0),(0,2,2,4,103,0),(0,2,2,5,103,0),(0,2,2,6,0,3),(0,2,2,7,0,0),(0,2,2,8,0,0),(0,2,2,9,103,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -4365,13 +5970,13 @@
         <v>101</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -4380,16 +5985,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,3,0,103,0),(1,0,3,1,0,0),(1,0,3,2,102,0),(1,0,3,3,101,0),(1,0,3,4,100,0),(1,0,3,5,100,0),(1,0,3,6,101,0),(1,0,3,7,0,0),(1,0,3,8,0,0),(1,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,3,0,0,0),(0,2,3,1,0,0),(0,2,3,2,102,0),(0,2,3,3,101,0),(0,2,3,4,102,0),(0,2,3,5,103,0),(0,2,3,6,103,0),(0,2,3,7,0,0),(0,2,3,8,0,0),(0,2,3,9,102,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4398,10 +6003,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -4416,22 +6021,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,4,0,101,0),(1,0,4,1,0,0),(1,0,4,2,0,0),(1,0,4,3,100,0),(1,0,4,4,0,0),(1,0,4,5,0,0),(1,0,4,6,0,2),(1,0,4,7,0,0),(1,0,4,8,0,0),(1,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,4,0,0,0),(0,2,4,1,0,0),(0,2,4,2,0,0),(0,2,4,3,0,0),(0,2,4,4,103,0),(0,2,4,5,0,0),(0,2,4,6,0,0),(0,2,4,7,0,0),(0,2,4,8,0,0),(0,2,4,9,102,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -4440,118 +6045,118 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>100</v>
       </c>
-      <c r="G6" s="5">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,5,0,101,0),(1,0,5,1,103,0),(1,0,5,2,0,0),(1,0,5,3,0,0),(1,0,5,4,0,0),(1,0,5,5,100,0),(1,0,5,6,104,0),(1,0,5,7,0,0),(1,0,5,8,0,0),(1,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,5,0,0,0),(0,2,5,1,0,0),(0,2,5,2,0,0),(0,2,5,3,0,0),(0,2,5,4,102,0),(0,2,5,5,0,0),(0,2,5,6,0,0),(0,2,5,7,0,0),(0,2,5,8,0,0),(0,2,5,9,100,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>101</v>
       </c>
       <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5">
         <v>101</v>
       </c>
-      <c r="E7" s="5">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>103</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,6,0,103,0),(1,0,6,1,101,0),(1,0,6,2,101,0),(1,0,6,3,101,0),(1,0,6,4,103,0),(1,0,6,5,0,0),(1,0,6,6,0,0),(1,0,6,7,0,0),(1,0,6,8,0,0),(1,0,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,6,0,0,0),(0,2,6,1,0,0),(0,2,6,2,101,0),(0,2,6,3,0,0),(0,2,6,4,0,0),(0,2,6,5,0,0),(0,2,6,6,103,0),(0,2,6,7,101,0),(0,2,6,8,0,0),(0,2,6,9,103,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>102</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,7,0,103,0),(1,0,7,1,101,0),(1,0,7,2,0,0),(1,0,7,3,102,0),(1,0,7,4,0,0),(1,0,7,5,102,0),(1,0,7,6,0,0),(1,0,7,7,0,0),(1,0,7,8,0,0),(1,0,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,7,0,0,0),(0,2,7,1,0,0),(0,2,7,2,0,0),(0,2,7,3,0,0),(0,2,7,4,0,0),(0,2,7,5,0,0),(0,2,7,6,0,0),(0,2,7,7,0,0),(0,2,7,8,0,0),(0,2,7,9,102,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>104</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -4560,19 +6165,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,8,0,104,0),(1,0,8,1,0,0),(1,0,8,2,0,0),(1,0,8,3,0,0),(1,0,8,4,0,0),(1,0,8,5,0,0),(1,0,8,6,0,0),(1,0,8,7,0,0),(1,0,8,8,101,0),(1,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,8,0,0,0),(0,2,8,1,0,0),(0,2,8,2,104,0),(0,2,8,3,103,0),(0,2,8,4,101,0),(0,2,8,5,101,0),(0,2,8,6,0,0),(0,2,8,7,0,0),(0,2,8,8,0,0),(0,2,8,9,102,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -4599,11 +6204,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,9,0,102,0),(1,0,9,1,0,0),(1,0,9,2,0,0),(1,0,9,3,0,0),(1,0,9,4,0,0),(1,0,9,5,0,0),(1,0,9,6,0,0),(1,0,9,7,0,0),(1,0,9,8,0,0),(1,0,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,9,0,0,0),(0,2,9,1,0,0),(0,2,9,2,0,0),(0,2,9,3,0,0),(0,2,9,4,0,0),(0,2,9,5,0,0),(0,2,9,6,0,0),(0,2,9,7,0,0),(0,2,9,8,0,0),(0,2,9,9,103,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4619,10 +6224,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4697,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -4735,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -4811,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -5017,12 +6622,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -5082,30 +6687,30 @@
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,0,0,0,0),(1,1,0,1,0,0),(1,1,0,2,0,0),(1,1,0,3,0,0),(1,1,0,4,0,0),(1,1,0,5,0,0),(1,1,0,6,0,0),(1,1,0,7,0,0),(1,1,0,8,0,0),(1,1,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,0,0,102,0),(1,0,0,1,0,0),(1,0,0,2,0,0),(1,0,0,3,0,0),(1,0,0,4,0,0),(1,0,0,5,0,0),(1,0,0,6,0,0),(1,0,0,7,0,0),(1,0,0,8,0,0),(1,0,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -5118,15 +6723,15 @@
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,1,0,0,0),(1,1,1,1,108,0),(1,1,1,2,103,0),(1,1,1,3,100,0),(1,1,1,4,101,0),(1,1,1,5,0,0),(1,1,1,6,0,0),(1,1,1,7,0,0),(1,1,1,8,0,0),(1,1,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,1,0,100,0),(1,0,1,1,0,0),(1,0,1,2,0,0),(1,0,1,3,0,0),(1,0,1,4,0,0),(1,0,1,5,0,0),(1,0,1,6,104,0),(1,0,1,7,0,0),(1,0,1,8,0,0),(1,0,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -5138,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -5154,30 +6759,30 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,2,0,0,0),(1,1,2,1,108,0),(1,1,2,2,0,0),(1,1,2,3,103,0),(1,1,2,4,0,0),(1,1,2,5,0,0),(1,1,2,6,0,0),(1,1,2,7,0,0),(1,1,2,8,0,0),(1,1,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,2,0,102,0),(1,0,2,1,103,0),(1,0,2,2,0,0),(1,0,2,3,103,0),(1,0,2,4,0,0),(1,0,2,5,101,0),(1,0,2,6,103,0),(1,0,2,7,0,0),(1,0,2,8,0,0),(1,0,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -5190,12 +6795,12 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,3,0,0,0),(1,1,3,1,0,0),(1,1,3,2,0,0),(1,1,3,3,104,0),(1,1,3,4,0,0),(1,1,3,5,0,0),(1,1,3,6,103,0),(1,1,3,7,0,0),(1,1,3,8,0,0),(1,1,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,3,0,103,0),(1,0,3,1,0,0),(1,0,3,2,102,0),(1,0,3,3,101,0),(1,0,3,4,100,0),(1,0,3,5,100,0),(1,0,3,6,101,0),(1,0,3,7,0,0),(1,0,3,8,0,0),(1,0,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -5204,19 +6809,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -5229,15 +6834,15 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,4,0,0,0),(1,1,4,1,0,0),(1,1,4,2,0,0),(1,1,4,3,0,0),(1,1,4,4,0,0),(1,1,4,5,100,0),(1,1,4,6,102,0),(1,1,4,7,102,0),(1,1,4,8,0,0),(1,1,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,4,0,101,0),(1,0,4,1,0,0),(1,0,4,2,0,0),(1,0,4,3,100,0),(1,0,4,4,0,0),(1,0,4,5,0,0),(1,0,4,6,0,2),(1,0,4,7,0,0),(1,0,4,8,0,0),(1,0,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -5249,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5">
         <v>104</v>
       </c>
       <c r="H6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -5265,24 +6870,24 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,5,0,0,0),(1,1,5,1,0,0),(1,1,5,2,0,0),(1,1,5,3,0,0),(1,1,5,4,0,0),(1,1,5,5,0,0),(1,1,5,6,104,0),(1,1,5,7,103,0),(1,1,5,8,0,0),(1,1,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,5,0,101,0),(1,0,5,1,103,0),(1,0,5,2,0,0),(1,0,5,3,0,0),(1,0,5,4,0,0),(1,0,5,5,100,0),(1,0,5,6,104,0),(1,0,5,7,0,0),(1,0,5,8,0,0),(1,0,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -5291,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -5301,33 +6906,33 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,6,0,0,0),(1,1,6,1,0,0),(1,1,6,2,0,0),(1,1,6,3,108,0),(1,1,6,4,104,0),(1,1,6,5,0,3),(1,1,6,6,0,0),(1,1,6,7,103,0),(1,1,6,8,0,0),(1,1,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,6,0,103,0),(1,0,6,1,101,0),(1,0,6,2,101,0),(1,0,6,3,101,0),(1,0,6,4,103,0),(1,0,6,5,0,0),(1,0,6,6,0,0),(1,0,6,7,0,0),(1,0,6,8,0,0),(1,0,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -5337,12 +6942,12 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,7,0,0,0),(1,1,7,1,0,0),(1,1,7,2,0,0),(1,1,7,3,0,0),(1,1,7,4,103,0),(1,1,7,5,102,0),(1,1,7,6,102,0),(1,1,7,7,103,0),(1,1,7,8,0,0),(1,1,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,7,0,103,0),(1,0,7,1,101,0),(1,0,7,2,0,0),(1,0,7,3,102,0),(1,0,7,4,0,0),(1,0,7,5,102,0),(1,0,7,6,0,0),(1,0,7,7,0,0),(1,0,7,8,0,0),(1,0,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -5366,19 +6971,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,8,0,0,0),(1,1,8,1,0,0),(1,1,8,2,0,0),(1,1,8,3,0,0),(1,1,8,4,0,0),(1,1,8,5,0,0),(1,1,8,6,0,0),(1,1,8,7,0,0),(1,1,8,8,0,0),(1,1,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,8,0,104,0),(1,0,8,1,0,0),(1,0,8,2,0,0),(1,0,8,3,0,0),(1,0,8,4,0,0),(1,0,8,5,0,0),(1,0,8,6,0,0),(1,0,8,7,0,0),(1,0,8,8,101,0),(1,0,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -5409,7 +7014,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,9,0,0,0),(1,1,9,1,0,0),(1,1,9,2,0,0),(1,1,9,3,0,0),(1,1,9,4,0,0),(1,1,9,5,0,0),(1,1,9,6,0,0),(1,1,9,7,0,0),(1,1,9,8,0,0),(1,1,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,9,0,102,0),(1,0,9,1,0,0),(1,0,9,2,0,0),(1,0,9,3,0,0),(1,0,9,4,0,0),(1,0,9,5,0,0),(1,0,9,6,0,0),(1,0,9,7,0,0),(1,0,9,8,0,0),(1,0,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5428,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5617,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -5684,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -5823,12 +7428,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5881,14 +7486,14 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,0,0,0,0),(1,2,0,1,0,0),(1,2,0,2,0,0),(1,2,0,3,0,0),(1,2,0,4,0,0),(1,2,0,5,0,0),(1,2,0,6,0,0),(1,2,0,7,0,0),(1,2,0,8,0,0),(1,2,0,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,0,0,0,0),(1,1,0,1,0,0),(1,1,0,2,0,0),(1,1,0,3,0,0),(1,1,0,4,0,0),(1,1,0,5,0,0),(1,1,0,6,0,0),(1,1,0,7,0,0),(1,1,0,8,0,0),(1,1,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5896,16 +7501,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -5920,11 +7525,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,1,0,0,0),(1,2,1,1,0,0),(1,2,1,2,0,0),(1,2,1,3,0,0),(1,2,1,4,0,0),(1,2,1,5,0,0),(1,2,1,6,0,0),(1,2,1,7,0,0),(1,2,1,8,0,1),(1,2,1,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,1,0,0,0),(1,1,1,1,108,0),(1,1,1,2,103,0),(1,1,1,3,100,0),(1,1,1,4,101,0),(1,1,1,5,0,0),(1,1,1,6,0,0),(1,1,1,7,0,0),(1,1,1,8,0,0),(1,1,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5932,22 +7537,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -5956,11 +7561,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,2,0,0,0),(1,2,2,1,0,0),(1,2,2,2,0,0),(1,2,2,3,0,0),(1,2,2,4,0,0),(1,2,2,5,106,0),(1,2,2,6,107,0),(1,2,2,7,0,0),(1,2,2,8,0,0),(1,2,2,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,2,0,0,0),(1,1,2,1,108,0),(1,1,2,2,0,0),(1,1,2,3,103,0),(1,1,2,4,0,0),(1,1,2,5,0,0),(1,1,2,6,0,0),(1,1,2,7,0,0),(1,1,2,8,0,0),(1,1,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -5983,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -5992,11 +7597,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,3,0,0,0),(1,2,3,1,0,0),(1,2,3,2,0,0),(1,2,3,3,0,0),(1,2,3,4,0,0),(1,2,3,5,0,0),(1,2,3,6,0,0),(1,2,3,7,0,0),(1,2,3,8,0,0),(1,2,3,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,3,0,0,0),(1,1,3,1,0,0),(1,1,3,2,0,0),(1,1,3,3,104,0),(1,1,3,4,0,0),(1,1,3,5,0,0),(1,1,3,6,103,0),(1,1,3,7,0,0),(1,1,3,8,0,0),(1,1,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6016,26 +7621,26 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,4,0,0,0),(1,2,4,1,0,0),(1,2,4,2,0,0),(1,2,4,3,0,0),(1,2,4,4,0,1),(1,2,4,5,0,0),(1,2,4,6,0,0),(1,2,4,7,0,0),(1,2,4,8,0,0),(1,2,4,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,4,0,0,0),(1,1,4,1,0,0),(1,1,4,2,0,0),(1,1,4,3,0,0),(1,1,4,4,0,0),(1,1,4,5,100,0),(1,1,4,6,102,0),(1,1,4,7,102,0),(1,1,4,8,0,0),(1,1,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,20 +7663,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,5,0,0,0),(1,2,5,1,0,0),(1,2,5,2,0,0),(1,2,5,3,0,0),(1,2,5,4,0,0),(1,2,5,5,0,0),(1,2,5,6,0,0),(1,2,5,7,0,0),(1,2,5,8,0,0),(1,2,5,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,5,0,0,0),(1,1,5,1,0,0),(1,1,5,2,0,0),(1,1,5,3,0,0),(1,1,5,4,0,0),(1,1,5,5,0,0),(1,1,5,6,104,0),(1,1,5,7,103,0),(1,1,5,8,0,0),(1,1,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6079,16 +7684,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -6097,17 +7702,17 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,6,0,0,0),(1,2,6,1,109,0),(1,2,6,2,110,0),(1,2,6,3,111,0),(1,2,6,4,0,0),(1,2,6,5,0,0),(1,2,6,6,0,0),(1,2,6,7,0,0),(1,2,6,8,0,1),(1,2,6,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,6,0,0,0),(1,1,6,1,0,0),(1,1,6,2,0,0),(1,1,6,3,108,0),(1,1,6,4,104,0),(1,1,6,5,0,3),(1,1,6,6,0,0),(1,1,6,7,103,0),(1,1,6,8,0,0),(1,1,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6124,26 +7729,26 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,7,0,0,0),(1,2,7,1,0,0),(1,2,7,2,0,0),(1,2,7,3,0,0),(1,2,7,4,0,1),(1,2,7,5,0,0),(1,2,7,6,0,0),(1,2,7,7,0,0),(1,2,7,8,0,0),(1,2,7,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,7,0,0,0),(1,1,7,1,0,0),(1,1,7,2,0,0),(1,1,7,3,0,0),(1,1,7,4,103,0),(1,1,7,5,102,0),(1,1,7,6,102,0),(1,1,7,7,103,0),(1,1,7,8,0,0),(1,1,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6175,11 +7780,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,8,0,0,0),(1,2,8,1,0,0),(1,2,8,2,0,0),(1,2,8,3,0,0),(1,2,8,4,0,0),(1,2,8,5,0,0),(1,2,8,6,0,0),(1,2,8,7,0,0),(1,2,8,8,0,0),(1,2,8,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,8,0,0,0),(1,1,8,1,0,0),(1,1,8,2,0,0),(1,1,8,3,0,0),(1,1,8,4,0,0),(1,1,8,5,0,0),(1,1,8,6,0,0),(1,1,8,7,0,0),(1,1,8,8,0,0),(1,1,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,11 +7816,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,9,0,0,0),(1,2,9,1,0,0),(1,2,9,2,0,0),(1,2,9,3,0,0),(1,2,9,4,0,0),(1,2,9,5,0,0),(1,2,9,6,0,0),(1,2,9,7,0,0),(1,2,9,8,0,0),(1,2,9,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,9,0,0,0),(1,1,9,1,0,0),(1,1,9,2,0,0),(1,1,9,3,0,0),(1,1,9,4,0,0),(1,1,9,5,0,0),(1,1,9,6,0,0),(1,1,9,7,0,0),(1,1,9,8,0,0),(1,1,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6234,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6315,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -6417,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -6472,9 +8077,6 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -6493,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -6502,13 +8104,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6525,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -6541,9 +8140,6 @@
       </c>
       <c r="J22" s="6">
         <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6638,12 +8234,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6669,7 +8265,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -6696,19 +8292,19 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,0,0,102,0),(2,0,0,1,0,0),(2,0,0,2,0,0),(2,0,0,3,0,0),(2,0,0,4,0,0),(2,0,0,5,0,0),(2,0,0,6,0,0),(2,0,0,7,0,0),(2,0,0,8,0,0),(2,0,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,0,0,0,0),(1,2,0,1,0,0),(1,2,0,2,0,0),(1,2,0,3,0,0),(1,2,0,4,0,0),(1,2,0,5,0,0),(1,2,0,6,0,0),(1,2,0,7,0,0),(1,2,0,8,0,0),(1,2,0,9,101,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -6735,16 +8331,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,1,0,101,0),(2,0,1,1,0,0),(2,0,1,2,0,0),(2,0,1,3,0,0),(2,0,1,4,0,0),(2,0,1,5,0,0),(2,0,1,6,0,0),(2,0,1,7,0,0),(2,0,1,8,0,0),(2,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,1,0,0,0),(1,2,1,1,0,0),(1,2,1,2,0,0),(1,2,1,3,0,0),(1,2,1,4,0,0),(1,2,1,5,0,0),(1,2,1,6,0,0),(1,2,1,7,0,0),(1,2,1,8,0,1),(1,2,1,9,103,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -6759,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -6771,16 +8367,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,2,0,102,0),(2,0,2,1,0,0),(2,0,2,2,0,0),(2,0,2,3,0,0),(2,0,2,4,0,0),(2,0,2,5,0,0),(2,0,2,6,0,0),(2,0,2,7,0,0),(2,0,2,8,0,0),(2,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,2,0,0,0),(1,2,2,1,0,0),(1,2,2,2,0,0),(1,2,2,3,0,0),(1,2,2,4,0,0),(1,2,2,5,106,0),(1,2,2,6,107,0),(1,2,2,7,0,0),(1,2,2,8,0,0),(1,2,2,9,103,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -6795,112 +8391,112 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,3,0,101,0),(2,0,3,1,0,0),(2,0,3,2,0,0),(2,0,3,3,0,0),(2,0,3,4,0,0),(2,0,3,5,108,0),(2,0,3,6,103,0),(2,0,3,7,100,0),(2,0,3,8,0,0),(2,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,3,0,0,0),(1,2,3,1,0,0),(1,2,3,2,0,0),(1,2,3,3,0,0),(1,2,3,4,0,0),(1,2,3,5,0,0),(1,2,3,6,0,0),(1,2,3,7,0,0),(1,2,3,8,0,0),(1,2,3,9,102,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>100</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>100</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,4,0,101,0),(2,0,4,1,100,0),(2,0,4,2,0,0),(2,0,4,3,0,0),(2,0,4,4,0,4),(2,0,4,5,0,0),(2,0,4,6,100,0),(2,0,4,7,0,0),(2,0,4,8,0,0),(2,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,4,0,0,0),(1,2,4,1,0,0),(1,2,4,2,0,0),(1,2,4,3,0,0),(1,2,4,4,0,1),(1,2,4,5,0,0),(1,2,4,6,0,0),(1,2,4,7,0,0),(1,2,4,8,0,0),(1,2,4,9,100,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>102</v>
       </c>
-      <c r="B6" s="5">
-        <v>102</v>
-      </c>
-      <c r="C6" s="5">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5">
-        <v>102</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5">
-        <v>101</v>
-      </c>
-      <c r="I6" s="5">
-        <v>102</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,5,0,102,0),(2,0,5,1,102,0),(2,0,5,2,102,0),(2,0,5,3,102,0),(2,0,5,4,0,0),(2,0,5,5,0,0),(2,0,5,6,103,0),(2,0,5,7,101,0),(2,0,5,8,102,0),(2,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,5,0,0,0),(1,2,5,1,0,0),(1,2,5,2,0,0),(1,2,5,3,0,0),(1,2,5,4,0,0),(1,2,5,5,0,0),(1,2,5,6,0,0),(1,2,5,7,0,0),(1,2,5,8,0,0),(1,2,5,9,102,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -6912,53 +8508,53 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,6,0,101,0),(2,0,6,1,103,0),(2,0,6,2,0,0),(2,0,6,3,102,0),(2,0,6,4,0,0),(2,0,6,5,0,0),(2,0,6,6,0,0),(2,0,6,7,104,0),(2,0,6,8,101,0),(2,0,6,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,6,0,0,0),(1,2,6,1,109,0),(1,2,6,2,110,0),(1,2,6,3,111,0),(1,2,6,4,0,0),(1,2,6,5,0,0),(1,2,6,6,0,0),(1,2,6,7,0,0),(1,2,6,8,0,1),(1,2,6,9,100,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>100</v>
       </c>
-      <c r="C8" s="5">
-        <v>101</v>
-      </c>
-      <c r="D8" s="5">
-        <v>101</v>
-      </c>
-      <c r="E8" s="5">
-        <v>103</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6">
-        <v>104</v>
-      </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,7,0,102,0),(2,0,7,1,100,0),(2,0,7,2,101,0),(2,0,7,3,101,0),(2,0,7,4,103,0),(2,0,7,5,0,0),(2,0,7,6,0,0),(2,0,7,7,0,0),(2,0,7,8,100,0),(2,0,7,9,104,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,7,0,0,0),(1,2,7,1,0,0),(1,2,7,2,0,0),(1,2,7,3,0,0),(1,2,7,4,0,1),(1,2,7,5,0,0),(1,2,7,6,0,0),(1,2,7,7,0,0),(1,2,7,8,0,0),(1,2,7,9,100,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6966,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -6975,26 +8571,26 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>101</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,8,0,0,0),(2,0,8,1,104,0),(2,0,8,2,0,0),(2,0,8,3,0,0),(2,0,8,4,101,0),(2,0,8,5,0,0),(2,0,8,6,0,0),(2,0,8,7,0,0),(2,0,8,8,0,0),(2,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,8,0,0,0),(1,2,8,1,0,0),(1,2,8,2,0,0),(1,2,8,3,0,0),(1,2,8,4,0,0),(1,2,8,5,0,0),(1,2,8,6,0,0),(1,2,8,7,0,0),(1,2,8,8,0,0),(1,2,8,9,101,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7005,32 +8601,32 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>101</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>103</v>
-      </c>
-      <c r="F10" s="8">
-        <v>101</v>
-      </c>
-      <c r="G10" s="8">
-        <v>103</v>
-      </c>
-      <c r="H10" s="8">
-        <v>102</v>
-      </c>
-      <c r="I10" s="8">
-        <v>102</v>
-      </c>
-      <c r="J10" s="9">
-        <v>108</v>
-      </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,9,0,0,0),(2,0,9,1,0,0),(2,0,9,2,101,0),(2,0,9,3,0,0),(2,0,9,4,103,0),(2,0,9,5,101,0),(2,0,9,6,103,0),(2,0,9,7,102,0),(2,0,9,8,102,0),(2,0,9,9,108,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,9,0,0,0),(1,2,9,1,0,0),(1,2,9,2,0,0),(1,2,9,3,0,0),(1,2,9,4,0,0),(1,2,9,5,0,0),(1,2,9,6,0,0),(1,2,9,7,0,0),(1,2,9,8,0,0),(1,2,9,9,101,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7046,10 +8642,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7130,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -7232,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -7287,6 +8883,9 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -7314,10 +8913,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -7350,6 +8952,9 @@
       </c>
       <c r="J22" s="6">
         <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7444,12 +9049,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7475,7 +9080,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -7509,18 +9114,18 @@
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,0,0,0,0),(2,1,0,1,0,0),(2,1,0,2,0,0),(2,1,0,3,0,0),(2,1,0,4,0,0),(2,1,0,5,0,0),(2,1,0,6,0,0),(2,1,0,7,0,0),(2,1,0,8,0,0),(2,1,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,0,0,102,0),(2,0,0,1,0,0),(2,0,0,2,0,0),(2,0,0,3,0,0),(2,0,0,4,0,0),(2,0,0,5,0,0),(2,0,0,6,0,0),(2,0,0,7,0,0),(2,0,0,8,0,0),(2,0,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -7529,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -7545,12 +9150,12 @@
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,1,0,0,0),(2,1,1,1,0,0),(2,1,1,2,103,0),(2,1,1,3,0,0),(2,1,1,4,0,0),(2,1,1,5,102,0),(2,1,1,6,108,0),(2,1,1,7,0,0),(2,1,1,8,0,0),(2,1,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,1,0,101,0),(2,0,1,1,0,0),(2,0,1,2,0,0),(2,0,1,3,0,0),(2,0,1,4,0,0),(2,0,1,5,0,0),(2,0,1,6,0,0),(2,0,1,7,0,0),(2,0,1,8,0,0),(2,0,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -7581,34 +9186,34 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,2,0,0,0),(2,1,2,1,0,0),(2,1,2,2,0,0),(2,1,2,3,0,0),(2,1,2,4,0,0),(2,1,2,5,0,0),(2,1,2,6,0,0),(2,1,2,7,0,0),(2,1,2,8,0,0),(2,1,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,2,0,102,0),(2,0,2,1,0,0),(2,0,2,2,0,0),(2,0,2,3,0,0),(2,0,2,4,0,0),(2,0,2,5,0,0),(2,0,2,6,0,0),(2,0,2,7,0,0),(2,0,2,8,0,0),(2,0,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>108</v>
       </c>
       <c r="G4" s="5">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5">
         <v>100</v>
       </c>
-      <c r="H4" s="5">
-        <v>102</v>
-      </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
@@ -7617,33 +9222,33 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,3,0,0,0),(2,1,3,1,0,0),(2,1,3,2,100,0),(2,1,3,3,102,0),(2,1,3,4,102,0),(2,1,3,5,108,0),(2,1,3,6,100,0),(2,1,3,7,102,0),(2,1,3,8,0,0),(2,1,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,3,0,101,0),(2,0,3,1,0,0),(2,0,3,2,0,0),(2,0,3,3,0,0),(2,0,3,4,0,0),(2,0,3,5,108,0),(2,0,3,6,103,0),(2,0,3,7,100,0),(2,0,3,8,0,0),(2,0,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
       <c r="H5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -7656,90 +9261,90 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,4,0,0,0),(2,1,4,1,104,0),(2,1,4,2,100,0),(2,1,4,3,0,0),(2,1,4,4,0,0),(2,1,4,5,0,0),(2,1,4,6,0,0),(2,1,4,7,102,0),(2,1,4,8,0,0),(2,1,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,4,0,101,0),(2,0,4,1,100,0),(2,0,4,2,0,0),(2,0,4,3,0,0),(2,0,4,4,0,4),(2,0,4,5,0,0),(2,0,4,6,100,0),(2,0,4,7,0,0),(2,0,4,8,0,0),(2,0,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>103</v>
       </c>
       <c r="H6" s="5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" s="5">
         <v>102</v>
       </c>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,5,0,0,0),(2,1,5,1,101,0),(2,1,5,2,101,0),(2,1,5,3,0,0),(2,1,5,4,0,0),(2,1,5,5,103,0),(2,1,5,6,103,0),(2,1,5,7,104,0),(2,1,5,8,102,0),(2,1,5,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,5,0,102,0),(2,0,5,1,102,0),(2,0,5,2,102,0),(2,0,5,3,102,0),(2,0,5,4,0,0),(2,0,5,5,0,0),(2,0,5,6,103,0),(2,0,5,7,101,0),(2,0,5,8,102,0),(2,0,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>102</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>104</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>102</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="I7" s="5">
         <v>101</v>
       </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>106</v>
-      </c>
-      <c r="I7" s="5">
-        <v>107</v>
-      </c>
       <c r="J7" s="6">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,6,0,108,0),(2,1,6,1,104,0),(2,1,6,2,0,0),(2,1,6,3,0,0),(2,1,6,4,102,0),(2,1,6,5,101,0),(2,1,6,6,0,0),(2,1,6,7,106,0),(2,1,6,8,107,0),(2,1,6,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,6,0,101,0),(2,0,6,1,103,0),(2,0,6,2,0,0),(2,0,6,3,102,0),(2,0,6,4,0,0),(2,0,6,5,0,0),(2,0,6,6,0,0),(2,0,6,7,104,0),(2,0,6,8,101,0),(2,0,6,9,101,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <v>102</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
         <v>101</v>
-      </c>
-      <c r="B8" s="5">
-        <v>104</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
       </c>
       <c r="D8" s="5">
         <v>101</v>
@@ -7748,23 +9353,23 @@
         <v>103</v>
       </c>
       <c r="F8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="6">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,7,0,101,0),(2,1,7,1,104,0),(2,1,7,2,4,0),(2,1,7,3,101,0),(2,1,7,4,103,0),(2,1,7,5,103,0),(2,1,7,6,0,0),(2,1,7,7,105,0),(2,1,7,8,0,0),(2,1,7,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,7,0,102,0),(2,0,7,1,100,0),(2,0,7,2,101,0),(2,0,7,3,101,0),(2,0,7,4,103,0),(2,0,7,5,0,0),(2,0,7,6,0,0),(2,0,7,7,0,0),(2,0,7,8,100,0),(2,0,7,9,104,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7772,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -7781,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -7796,34 +9401,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,8,0,0,0),(2,1,8,1,0,0),(2,1,8,2,0,0),(2,1,8,3,0,0),(2,1,8,4,2,0),(2,1,8,5,0,0),(2,1,8,6,0,0),(2,1,8,7,0,0),(2,1,8,8,0,0),(2,1,8,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,8,0,0,0),(2,0,8,1,104,0),(2,0,8,2,0,0),(2,0,8,3,0,0),(2,0,8,4,101,0),(2,0,8,5,0,0),(2,0,8,6,0,0),(2,0,8,7,0,0),(2,0,8,8,0,0),(2,0,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B10" s="8">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
         <v>103</v>
       </c>
       <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
         <v>103</v>
-      </c>
-      <c r="G10" s="8">
-        <v>102</v>
       </c>
       <c r="H10" s="8">
         <v>102</v>
@@ -7832,11 +9437,11 @@
         <v>102</v>
       </c>
       <c r="J10" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,9,0,102,0),(2,1,9,1,103,0),(2,1,9,2,103,0),(2,1,9,3,103,0),(2,1,9,4,103,0),(2,1,9,5,103,0),(2,1,9,6,102,0),(2,1,9,7,102,0),(2,1,9,8,102,0),(2,1,9,9,104,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,9,0,0,0),(2,0,9,1,0,0),(2,0,9,2,101,0),(2,0,9,3,0,0),(2,0,9,4,103,0),(2,0,9,5,101,0),(2,0,9,6,103,0),(2,0,9,7,102,0),(2,0,9,8,102,0),(2,0,9,9,108,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7855,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -8038,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -8250,12 +9855,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8308,14 +9913,14 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,0,0,0,0),(2,2,0,1,0,0),(2,2,0,2,0,0),(2,2,0,3,0,0),(2,2,0,4,0,0),(2,2,0,5,0,0),(2,2,0,6,0,0),(2,2,0,7,0,0),(2,2,0,8,0,0),(2,2,0,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,0,0,0,0),(2,1,0,1,0,0),(2,1,0,2,0,0),(2,1,0,3,0,0),(2,1,0,4,0,0),(2,1,0,5,0,0),(2,1,0,6,0,0),(2,1,0,7,0,0),(2,1,0,8,0,0),(2,1,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8323,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -8335,23 +9940,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H2" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,1,0,0,0),(2,2,1,1,101,0),(2,2,1,2,0,0),(2,2,1,3,0,0),(2,2,1,4,0,0),(2,2,1,5,0,0),(2,2,1,6,102,0),(2,2,1,7,100,0),(2,2,1,8,0,0),(2,2,1,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,1,0,0,0),(2,1,1,1,0,0),(2,1,1,2,103,0),(2,1,1,3,0,0),(2,1,1,4,0,0),(2,1,1,5,102,0),(2,1,1,6,108,0),(2,1,1,7,0,0),(2,1,1,8,0,0),(2,1,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8368,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -8383,11 +9988,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,2,0,0,0),(2,2,2,1,0,0),(2,2,2,2,0,0),(2,2,2,3,0,0),(2,2,2,4,100,0),(2,2,2,5,0,0),(2,2,2,6,0,0),(2,2,2,7,0,0),(2,2,2,8,0,0),(2,2,2,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,2,0,0,0),(2,1,2,1,0,0),(2,1,2,2,0,0),(2,1,2,3,0,0),(2,1,2,4,0,0),(2,1,2,5,0,0),(2,1,2,6,0,0),(2,1,2,7,0,0),(2,1,2,8,0,0),(2,1,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,32 +10003,32 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
         <v>102</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G4" s="5">
         <v>100</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,3,0,0,0),(2,2,3,1,0,0),(2,2,3,2,102,0),(2,2,3,3,0,0),(2,2,3,4,0,0),(2,2,3,5,0,0),(2,2,3,6,100,0),(2,2,3,7,0,0),(2,2,3,8,0,2),(2,2,3,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,3,0,0,0),(2,1,3,1,0,0),(2,1,3,2,100,0),(2,1,3,3,102,0),(2,1,3,4,102,0),(2,1,3,5,108,0),(2,1,3,6,100,0),(2,1,3,7,102,0),(2,1,3,8,0,0),(2,1,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,110 +10036,110 @@
         <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>102</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5">
-        <v>101</v>
-      </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,4,0,0,0),(2,2,4,1,0,0),(2,2,4,2,103,0),(2,2,4,3,102,0),(2,2,4,4,0,2),(2,2,4,5,0,0),(2,2,4,6,102,0),(2,2,4,7,101,0),(2,2,4,8,0,0),(2,2,4,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,4,0,0,0),(2,1,4,1,104,0),(2,1,4,2,100,0),(2,1,4,3,0,0),(2,1,4,4,0,0),(2,1,4,5,0,0),(2,1,4,6,0,0),(2,1,4,7,102,0),(2,1,4,8,0,0),(2,1,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>103</v>
-      </c>
-      <c r="C6" s="5">
-        <v>103</v>
-      </c>
-      <c r="D6" s="5">
-        <v>101</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>101</v>
       </c>
       <c r="G6" s="5">
         <v>103</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I6" s="5">
+        <v>102</v>
+      </c>
+      <c r="J6" s="6">
         <v>100</v>
       </c>
-      <c r="J6" s="6">
-        <v>102</v>
-      </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,5,0,102,0),(2,2,5,1,103,0),(2,2,5,2,103,0),(2,2,5,3,101,0),(2,2,5,4,0,0),(2,2,5,5,101,0),(2,2,5,6,103,0),(2,2,5,7,0,0),(2,2,5,8,100,0),(2,2,5,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,5,0,0,0),(2,1,5,1,101,0),(2,1,5,2,101,0),(2,1,5,3,0,0),(2,1,5,4,0,0),(2,1,5,5,103,0),(2,1,5,6,103,0),(2,1,5,7,104,0),(2,1,5,8,102,0),(2,1,5,9,100,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>100</v>
-      </c>
-      <c r="B7" s="4">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5">
+        <v>101</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>106</v>
+      </c>
+      <c r="I7" s="5">
+        <v>107</v>
+      </c>
+      <c r="J7" s="6">
         <v>103</v>
       </c>
-      <c r="C7" s="5">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>103</v>
-      </c>
-      <c r="I7" s="5">
-        <v>105</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,6,0,100,0),(2,2,6,1,103,0),(2,2,6,2,101,0),(2,2,6,3,0,0),(2,2,6,4,0,0),(2,2,6,5,100,0),(2,2,6,6,0,0),(2,2,6,7,103,0),(2,2,6,8,105,0),(2,2,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,6,0,108,0),(2,1,6,1,104,0),(2,1,6,2,0,0),(2,1,6,3,0,0),(2,1,6,4,102,0),(2,1,6,5,101,0),(2,1,6,6,0,0),(2,1,6,7,106,0),(2,1,6,8,107,0),(2,1,6,9,103,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8542,35 +10147,35 @@
         <v>101</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5">
         <v>103</v>
       </c>
       <c r="F8" s="5">
+        <v>103</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>105</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>102</v>
       </c>
-      <c r="G8" s="5">
-        <v>103</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>103</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,7,0,101,0),(2,2,7,1,0,0),(2,2,7,2,100,0),(2,2,7,3,102,0),(2,2,7,4,103,0),(2,2,7,5,102,0),(2,2,7,6,103,0),(2,2,7,7,0,0),(2,2,7,8,103,0),(2,2,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,7,0,101,0),(2,1,7,1,104,0),(2,1,7,2,4,0),(2,1,7,3,101,0),(2,1,7,4,103,0),(2,1,7,5,103,0),(2,1,7,6,0,0),(2,1,7,7,105,0),(2,1,7,8,0,0),(2,1,7,9,102,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8578,22 +10183,22 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -8602,47 +10207,47 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,8,0,0,0),(2,2,8,1,101,0),(2,2,8,2,101,0),(2,2,8,3,0,0),(2,2,8,4,0,0),(2,2,8,5,102,0),(2,2,8,6,100,0),(2,2,8,7,0,0),(2,2,8,8,0,0),(2,2,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,8,0,0,0),(2,1,8,1,0,0),(2,1,8,2,0,0),(2,1,8,3,0,0),(2,1,8,4,2,0),(2,1,8,5,0,0),(2,1,8,6,0,0),(2,1,8,7,0,0),(2,1,8,8,0,0),(2,1,8,9,103,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,2,9,0,0,0),(2,2,9,1,0,0),(2,2,9,2,0,0),(2,2,9,3,101,0),(2,2,9,4,0,0),(2,2,9,5,0,0),(2,2,9,6,0,0),(2,2,9,7,101,0),(2,2,9,8,0,0),(2,2,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,9,0,102,0),(2,1,9,1,103,0),(2,1,9,2,103,0),(2,1,9,3,103,0),(2,1,9,4,103,0),(2,1,9,5,103,0),(2,1,9,6,102,0),(2,1,9,7,102,0),(2,1,9,8,102,0),(2,1,9,9,104,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -8661,7 +10266,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -8818,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
@@ -8844,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -9056,12 +10661,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/planszo_kreator.xlsx
+++ b/planszo_kreator.xlsx
@@ -377,84 +377,12 @@
     <cellStyle name="Result" xfId="6"/>
     <cellStyle name="Result2" xfId="7"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF333333"/>
           <bgColor rgb="FF333333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-          <bgColor rgb="FF333333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-          <bgColor rgb="FF333333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-          <bgColor rgb="FF333333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -597,16 +525,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
+          <fgColor rgb="FF333333"/>
+          <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-          <bgColor rgb="FF333333"/>
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1722,12 +1650,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2530,12 +2458,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3669,12 +3597,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27:J36">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>A16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:J25">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3957,8 +3885,8 @@
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-4&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-4&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-4&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-4&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-4&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-4&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-4&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-4&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-4&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-4&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,104,0),(0,0,1,1,1,102,0),(0,0,1,2,1,101,0),(0,0,1,3,1,102,0),(0,0,1,4,1,101,0),(0,0,1,5,1,104,0),(0,0,1,6,1,102,0),(0,0,1,7,1,101,0),(0,0,1,8,1,102,0),(0,0,1,9,1,100,0);</v>
+        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-5&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-5&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-5&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-5&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-5&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-5&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-5&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-5&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-5&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-5&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,0,0,1,104,0),(0,0,0,1,1,102,0),(0,0,0,2,1,101,0),(0,0,0,3,1,102,0),(0,0,0,4,1,101,0),(0,0,0,5,1,104,0),(0,0,0,6,1,102,0),(0,0,0,7,1,101,0),(0,0,0,8,1,102,0),(0,0,0,9,1,100,0);</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3993,8 +3921,8 @@
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-4&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-4&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-4&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-4&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-4&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-4&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-4&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-4&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-4&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-4&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,103,0),(0,0,2,1,1,103,0),(0,0,2,2,1,100,0),(0,0,2,3,1,101,0),(0,0,2,4,1,106,0),(0,0,2,5,1,107,0),(0,0,2,6,1,103,0),(0,0,2,7,1,101,0),(0,0,2,8,1,102,0),(0,0,2,9,1,0,0);</v>
+        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-5&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-5&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-5&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-5&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-5&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-5&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-5&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-5&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-5&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-5&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,103,0),(0,0,1,1,1,103,0),(0,0,1,2,1,100,0),(0,0,1,3,1,101,0),(0,0,1,4,1,106,0),(0,0,1,5,1,107,0),(0,0,1,6,1,103,0),(0,0,1,7,1,101,0),(0,0,1,8,1,102,0),(0,0,1,9,1,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,7 +3958,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,102,0),(0,0,3,1,1,101,0),(0,0,3,2,1,104,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,103,0),(0,0,3,7,1,104,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,102,0),(0,0,2,1,1,101,0),(0,0,2,2,1,104,0),(0,0,2,3,1,0,0),(0,0,2,4,1,0,0),(0,0,2,5,1,0,0),(0,0,2,6,1,103,0),(0,0,2,7,1,104,0),(0,0,2,8,1,0,0),(0,0,2,9,1,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4066,7 +3994,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,103,0),(0,0,4,1,1,102,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,0,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,1),(0,0,4,7,1,103,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,103,0),(0,0,3,1,1,102,0),(0,0,3,2,1,0,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,0,1),(0,0,3,7,1,103,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,7 +4033,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,101,0),(0,0,5,1,1,100,0),(0,0,5,2,1,0,0),(0,0,5,3,1,0,0),(0,0,5,4,1,105,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,101,0),(0,0,4,1,1,100,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,105,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,0),(0,0,4,7,1,0,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,7 +4069,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,100,0),(0,0,6,1,1,100,0),(0,0,6,2,1,102,0),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,100,0),(0,0,5,1,1,100,0),(0,0,5,2,1,102,0),(0,0,5,3,1,0,0),(0,0,5,4,1,0,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,7 +4105,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,100,0),(0,0,7,1,1,100,0),(0,0,7,2,1,0,1),(0,0,7,3,1,0,0),(0,0,7,4,1,0,0),(0,0,7,5,1,0,0),(0,0,7,6,1,0,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,100,0),(0,0,6,1,1,100,0),(0,0,6,2,1,0,1),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,7 +4141,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,101,0),(0,0,8,1,1,101,0),(0,0,8,2,1,104,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,1),(0,0,8,5,1,103,0),(0,0,8,6,1,102,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,101,0),(0,0,7,1,1,101,0),(0,0,7,2,1,104,0),(0,0,7,3,1,0,0),(0,0,7,4,1,0,1),(0,0,7,5,1,103,0),(0,0,7,6,1,102,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4249,7 +4177,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,101,0),(0,0,9,1,1,103,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,101,0),(0,0,8,1,1,103,0),(0,0,8,2,1,0,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,0),(0,0,8,5,1,0,0),(0,0,8,6,1,0,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4285,7 +4213,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,10,0,1,103,0),(0,0,10,1,1,0,0),(0,0,10,2,1,0,0),(0,0,10,3,1,0,0),(0,0,10,4,1,0,0),(0,0,10,5,1,0,0),(0,0,10,6,1,0,0),(0,0,10,7,1,0,0),(0,0,10,8,1,0,0),(0,0,10,9,1,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,103,0),(0,0,9,1,1,0,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5007,12 +4935,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27:J36">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>A16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:J25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5816,12 +5744,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6622,12 +6550,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7428,12 +7356,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8234,12 +8162,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9049,12 +8977,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9855,12 +9783,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10661,12 +10589,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/planszo_kreator.xlsx
+++ b/planszo_kreator.xlsx
@@ -9,29 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plansza00old" sheetId="1" r:id="rId1"/>
+    <sheet name="Plansza_czysta" sheetId="10" r:id="rId1"/>
     <sheet name="Plansza00" sheetId="13" r:id="rId2"/>
-    <sheet name="Plansza01" sheetId="2" r:id="rId3"/>
-    <sheet name="Plansza02" sheetId="3" r:id="rId4"/>
-    <sheet name="Plansza10" sheetId="4" r:id="rId5"/>
-    <sheet name="Plansza11" sheetId="5" r:id="rId6"/>
-    <sheet name="Plansza_12" sheetId="6" r:id="rId7"/>
-    <sheet name="Plansza20" sheetId="7" r:id="rId8"/>
-    <sheet name="Plansza21" sheetId="8" r:id="rId9"/>
-    <sheet name="Plansza22" sheetId="9" r:id="rId10"/>
-    <sheet name="Plansza_czysta" sheetId="10" r:id="rId11"/>
+    <sheet name="Plansza01" sheetId="14" r:id="rId3"/>
+    <sheet name="Plansza01old" sheetId="2" r:id="rId4"/>
+    <sheet name="Plansza02" sheetId="3" r:id="rId5"/>
+    <sheet name="Plansza10" sheetId="4" r:id="rId6"/>
+    <sheet name="Plansza11" sheetId="5" r:id="rId7"/>
+    <sheet name="Plansza_12" sheetId="6" r:id="rId8"/>
+    <sheet name="Plansza20" sheetId="7" r:id="rId9"/>
+    <sheet name="Plansza21" sheetId="8" r:id="rId10"/>
+    <sheet name="Plansza22" sheetId="9" r:id="rId11"/>
     <sheet name="wyliczenia_ciosu_specjalnego" sheetId="11" r:id="rId12"/>
-    <sheet name="Arkusz3" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="35">
   <si>
     <t>plansza</t>
   </si>
@@ -106,6 +105,36 @@
   </si>
   <si>
     <t>1 - piasek</t>
+  </si>
+  <si>
+    <t>1 – trawa</t>
+  </si>
+  <si>
+    <t>2 - piasek</t>
+  </si>
+  <si>
+    <t>3 - trawa-piasek (trawa po lewej)</t>
+  </si>
+  <si>
+    <t>4 - trawa-piasek (trawa na górze)</t>
+  </si>
+  <si>
+    <t>5 - trawa-piasek (trawa po prawej)</t>
+  </si>
+  <si>
+    <t>6 - trawa-piasek (trawa na dole)</t>
+  </si>
+  <si>
+    <t>7 - trawa-piasek-kąt (piasek PD)</t>
+  </si>
+  <si>
+    <t>8 - trawa-piasek-kąt (piasek LD)</t>
+  </si>
+  <si>
+    <t>9 - trawa-piasek-kąt (piasek LG)</t>
+  </si>
+  <si>
+    <t>10 - trawa-piasek-kąt (piasek PG)</t>
   </si>
 </sst>
 </file>
@@ -397,6 +426,22 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF333333"/>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
         </patternFill>
@@ -535,22 +580,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-          <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
     </dxf>
@@ -864,99 +893,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="4.25" customWidth="1"/>
+    <col min="1" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="16" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-5&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-5&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-5&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-5&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-5&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-5&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-5&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-5&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-5&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-5&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,0,0,1,0,0),(0,0,0,1,1,0,0),(0,0,0,2,1,0,0),(0,0,0,3,1,0,0),(0,0,0,4,1,0,0),(0,0,0,5,1,0,0),(0,0,0,6,1,0,0),(0,0,0,7,1,0,0),(0,0,0,8,1,0,0),(0,0,0,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-5&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-5&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-5&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-5&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-5&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-5&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-5&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-5&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-5&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-5&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,0,0),(0,0,1,1,1,0,0),(0,0,1,2,1,0,0),(0,0,1,3,1,0,0),(0,0,1,4,1,0,0),(0,0,1,5,1,0,0),(0,0,1,6,1,0,0),(0,0,1,7,1,0,0),(0,0,1,8,1,0,0),(0,0,1,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,0,0),(0,0,2,1,1,0,0),(0,0,2,2,1,0,0),(0,0,2,3,1,0,0),(0,0,2,4,1,0,0),(0,0,2,5,1,0,0),(0,0,2,6,1,0,0),(0,0,2,7,1,0,0),(0,0,2,8,1,0,0),(0,0,2,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,0,0),(0,0,3,1,1,0,0),(0,0,3,2,1,0,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,0,0),(0,0,3,7,1,0,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,0,0),(0,0,4,1,1,0,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,0,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,0),(0,0,4,7,1,0,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,0,0),(0,0,5,1,1,0,0),(0,0,5,2,1,0,0),(0,0,5,3,1,0,0),(0,0,5,4,1,0,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,0,0),(0,0,6,1,1,0,0),(0,0,6,2,1,0,0),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,0,0),(0,0,7,1,1,0,0),(0,0,7,2,1,0,0),(0,0,7,3,1,0,0),(0,0,7,4,1,0,0),(0,0,7,5,1,0,0),(0,0,7,6,1,0,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,0,0),(0,0,8,1,1,0,0),(0,0,8,2,1,0,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,0),(0,0,8,5,1,0,0),(0,0,8,6,1,0,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,0,0),(0,0,9,1,1,0,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A27:J36">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>A16&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:J25">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CStrona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="3.25" customWidth="1"/>
     <col min="11" max="16" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H1" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I1" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,0,0,104,0),(0,0,0,1,102,0),(0,0,0,2,101,0),(0,0,0,3,102,0),(0,0,0,4,101,0),(0,0,0,5,104,0),(0,0,0,6,102,0),(0,0,0,7,101,0),(0,0,0,8,102,0),(0,0,0,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,0,0,0,0),(2,1,0,1,0,0),(2,1,0,2,0,0),(2,1,0,3,0,0),(2,1,0,4,0,0),(2,1,0,5,0,0),(2,1,0,6,0,0),(2,1,0,7,0,0),(2,1,0,8,0,0),(2,1,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>103</v>
       </c>
-      <c r="B2" s="5">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
       <c r="D2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,1,0,103,0),(0,0,1,1,103,0),(0,0,1,2,100,0),(0,0,1,3,101,0),(0,0,1,4,106,0),(0,0,1,5,107,0),(0,0,1,6,103,0),(0,0,1,7,101,0),(0,0,1,8,102,0),(0,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,1,0,0,0),(2,1,1,1,0,0),(2,1,1,2,103,0),(2,1,1,3,0,0),(2,1,1,4,0,0),(2,1,1,5,102,0),(2,1,1,6,108,0),(2,1,1,7,0,0),(2,1,1,8,0,0),(2,1,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -968,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -981,33 +2176,33 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,2,0,102,0),(0,0,2,1,101,0),(0,0,2,2,104,0),(0,0,2,3,0,0),(0,0,2,4,0,0),(0,0,2,5,0,0),(0,0,2,6,103,0),(0,0,2,7,104,0),(0,0,2,8,0,0),(0,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,2,0,0,0),(2,1,2,1,0,0),(2,1,2,2,0,0),(2,1,2,3,0,0),(2,1,2,4,0,0),(2,1,2,5,0,0),(2,1,2,6,0,0),(2,1,2,7,0,0),(2,1,2,8,0,0),(2,1,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
         <v>102</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -1017,24 +2212,24 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,3,0,103,0),(0,0,3,1,102,0),(0,0,3,2,0,0),(0,0,3,3,0,0),(0,0,3,4,0,0),(0,0,3,5,0,0),(0,0,3,6,0,1),(0,0,3,7,103,0),(0,0,3,8,0,0),(0,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,3,0,0,0),(2,1,3,1,0,0),(2,1,3,2,100,0),(2,1,3,3,102,0),(2,1,3,4,102,0),(2,1,3,5,108,0),(2,1,3,6,100,0),(2,1,3,7,102,0),(2,1,3,8,0,0),(2,1,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -1043,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1056,51 +2251,51 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,4,0,101,0),(0,0,4,1,100,0),(0,0,4,2,0,0),(0,0,4,3,0,0),(0,0,4,4,105,0),(0,0,4,5,0,0),(0,0,4,6,0,0),(0,0,4,7,0,0),(0,0,4,8,0,0),(0,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,4,0,0,0),(2,1,4,1,104,0),(2,1,4,2,100,0),(2,1,4,3,0,0),(2,1,4,4,0,0),(2,1,4,5,0,0),(2,1,4,6,0,0),(2,1,4,7,102,0),(2,1,4,8,0,0),(2,1,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>103</v>
+      </c>
+      <c r="G6" s="5">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5">
+        <v>104</v>
+      </c>
+      <c r="I6" s="5">
+        <v>102</v>
+      </c>
+      <c r="J6" s="6">
         <v>100</v>
-      </c>
-      <c r="B6" s="5">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,5,0,100,0),(0,0,5,1,100,0),(0,0,5,2,102,0),(0,0,5,3,0,0),(0,0,5,4,0,0),(0,0,5,5,0,0),(0,0,5,6,0,0),(0,0,5,7,0,0),(0,0,5,8,0,0),(0,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,5,0,0,0),(2,1,5,1,101,0),(2,1,5,2,101,0),(2,1,5,3,0,0),(2,1,5,4,0,0),(2,1,5,5,103,0),(2,1,5,6,103,0),(2,1,5,7,104,0),(2,1,5,8,102,0),(2,1,5,9,100,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1109,26 +2304,26 @@
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,6,0,100,0),(0,0,6,1,100,0),(0,0,6,2,0,1),(0,0,6,3,0,0),(0,0,6,4,0,0),(0,0,6,5,0,0),(0,0,6,6,0,0),(0,0,6,7,0,0),(0,0,6,8,0,0),(0,0,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,6,0,108,0),(2,1,6,1,104,0),(2,1,6,2,0,0),(2,1,6,3,0,0),(2,1,6,4,102,0),(2,1,6,5,101,0),(2,1,6,6,0,0),(2,1,6,7,106,0),(2,1,6,8,107,0),(2,1,6,9,103,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,107 +2331,107 @@
         <v>101</v>
       </c>
       <c r="B8" s="5">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
         <v>101</v>
       </c>
-      <c r="C8" s="5">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
         <v>103</v>
       </c>
       <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>105</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>102</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,7,0,101,0),(0,0,7,1,101,0),(0,0,7,2,104,0),(0,0,7,3,0,0),(0,0,7,4,0,1),(0,0,7,5,103,0),(0,0,7,6,102,0),(0,0,7,7,0,0),(0,0,7,8,0,0),(0,0,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,7,0,101,0),(2,1,7,1,104,0),(2,1,7,2,4,0),(2,1,7,3,101,0),(2,1,7,4,103,0),(2,1,7,5,103,0),(2,1,7,6,0,0),(2,1,7,7,105,0),(2,1,7,8,0,0),(2,1,7,9,102,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>103</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,8,0,101,0),(0,0,8,1,103,0),(0,0,8,2,0,0),(0,0,8,3,0,0),(0,0,8,4,0,0),(0,0,8,5,0,0),(0,0,8,6,0,0),(0,0,8,7,0,0),(0,0,8,8,0,0),(0,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,8,0,0,0),(2,1,8,1,0,0),(2,1,8,2,0,0),(2,1,8,3,0,0),(2,1,8,4,2,0),(2,1,8,5,0,0),(2,1,8,6,0,0),(2,1,8,7,0,0),(2,1,8,8,0,0),(2,1,8,9,103,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
+        <v>102</v>
+      </c>
+      <c r="B10" s="8">
         <v>103</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,0,9,0,103,0),(0,0,9,1,0,0),(0,0,9,2,0,0),(0,0,9,3,0,0),(0,0,9,4,0,0),(0,0,9,5,0,0),(0,0,9,6,0,0),(0,0,9,7,0,0),(0,0,9,8,0,0),(0,0,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,9,0,102,0),(2,1,9,1,103,0),(2,1,9,2,103,0),(2,1,9,3,103,0),(2,1,9,4,103,0),(2,1,9,5,103,0),(2,1,9,6,102,0),(2,1,9,7,102,0),(2,1,9,8,102,0),(2,1,9,9,104,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1252,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1406,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -1502,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -1540,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -1650,12 +2845,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
@@ -2458,1156 +3653,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CStrona &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="19.75" customWidth="1"/>
-    <col min="15" max="16" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="L1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" t="str">
-        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-4&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-4&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-4&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-4&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-4&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-4&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-4&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-4&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-4&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-4&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,1,0,1,0,0),(0,0,1,1,1,0,0),(0,0,1,2,1,0,0),(0,0,1,3,1,0,0),(0,0,1,4,1,0,0),(0,0,1,5,1,0,0),(0,0,1,6,1,0,0),(0,0,1,7,1,0,0),(0,0,1,8,1,0,0),(0,0,1,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-4&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-4&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-4&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-4&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-4&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-4&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-4&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-4&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-4&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-4&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,2,0,1,0,0),(0,0,2,1,1,0,0),(0,0,2,2,1,0,0),(0,0,2,3,1,0,0),(0,0,2,4,1,0,0),(0,0,2,5,1,0,0),(0,0,2,6,1,0,0),(0,0,2,7,1,0,0),(0,0,2,8,1,0,0),(0,0,2,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,3,0,1,0,0),(0,0,3,1,1,0,0),(0,0,3,2,1,0,0),(0,0,3,3,1,0,0),(0,0,3,4,1,0,0),(0,0,3,5,1,0,0),(0,0,3,6,1,0,0),(0,0,3,7,1,0,0),(0,0,3,8,1,0,0),(0,0,3,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,4,0,1,0,0),(0,0,4,1,1,0,0),(0,0,4,2,1,0,0),(0,0,4,3,1,0,0),(0,0,4,4,1,0,0),(0,0,4,5,1,0,0),(0,0,4,6,1,0,0),(0,0,4,7,1,0,0),(0,0,4,8,1,0,0),(0,0,4,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,5,0,1,0,0),(0,0,5,1,1,0,0),(0,0,5,2,1,0,0),(0,0,5,3,1,0,0),(0,0,5,4,1,0,0),(0,0,5,5,1,0,0),(0,0,5,6,1,0,0),(0,0,5,7,1,0,0),(0,0,5,8,1,0,0),(0,0,5,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,6,0,1,0,0),(0,0,6,1,1,0,0),(0,0,6,2,1,0,0),(0,0,6,3,1,0,0),(0,0,6,4,1,0,0),(0,0,6,5,1,0,0),(0,0,6,6,1,0,0),(0,0,6,7,1,0,0),(0,0,6,8,1,0,0),(0,0,6,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,7,0,1,0,0),(0,0,7,1,1,0,0),(0,0,7,2,1,0,0),(0,0,7,3,1,0,0),(0,0,7,4,1,0,0),(0,0,7,5,1,0,0),(0,0,7,6,1,0,0),(0,0,7,7,1,0,0),(0,0,7,8,1,0,0),(0,0,7,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,8,0,1,0,0),(0,0,8,1,1,0,0),(0,0,8,2,1,0,0),(0,0,8,3,1,0,0),(0,0,8,4,1,0,0),(0,0,8,5,1,0,0),(0,0,8,6,1,0,0),(0,0,8,7,1,0,0),(0,0,8,8,1,0,0),(0,0,8,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,9,0,1,0,0),(0,0,9,1,1,0,0),(0,0,9,2,1,0,0),(0,0,9,3,1,0,0),(0,0,9,4,1,0,0),(0,0,9,5,1,0,0),(0,0,9,6,1,0,0),(0,0,9,7,1,0,0),(0,0,9,8,1,0,0),(0,0,9,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,0,10,0,1,0,0),(0,0,10,1,1,0,0),(0,0,10,2,1,0,0),(0,0,10,3,1,0,0),(0,0,10,4,1,0,0),(0,0,10,5,1,0,0),(0,0,10,6,1,0,0),(0,0,10,7,1,0,0),(0,0,10,8,1,0,0),(0,0,10,9,1,0,0);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>0</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>0</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>0</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>0</v>
-      </c>
-      <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A27:J36">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>A16&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:J25">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CStrona &amp;P</oddFooter>
@@ -3794,30 +3849,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CStrona &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5:L14"/>
     </sheetView>
   </sheetViews>
@@ -4935,12 +4971,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27:J36">
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>A16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:J25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4955,10 +4991,1175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="31.25" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="16" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A5)-5&amp;",0,"&amp;A5&amp;","&amp;A16&amp;","&amp;A27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B5)-5&amp;",1,"&amp;B5&amp;","&amp;B16&amp;","&amp;B27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C5)-5&amp;",2,"&amp;C5&amp;","&amp;C16&amp;","&amp;C27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D5)-5&amp;",3,"&amp;D5&amp;","&amp;D16&amp;","&amp;D27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E5)-5&amp;",4,"&amp;E5&amp;","&amp;E16&amp;","&amp;E27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F5)-5&amp;",5,"&amp;F5&amp;","&amp;F16&amp;","&amp;F27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G5)-5&amp;",6,"&amp;G5&amp;","&amp;G16&amp;","&amp;G27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H5)-5&amp;",7,"&amp;H5&amp;","&amp;H16&amp;","&amp;H27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I5)-5&amp;",8,"&amp;I5&amp;","&amp;I16&amp;","&amp;I27&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J5)-5&amp;",9,"&amp;J5&amp;","&amp;J16&amp;","&amp;J27&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,0,0,1,102,0),(0,1,0,1,1,102,0),(0,1,0,2,1,101,0),(0,1,0,3,1,100,0),(0,1,0,4,1,103,0),(0,1,0,5,1,101,0),(0,1,0,6,1,102,0),(0,1,0,7,1,102,0),(0,1,0,8,1,102,0),(0,1,0,9,1,101,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L14" si="0">"INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES ("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(A6)-5&amp;",0,"&amp;A6&amp;","&amp;A17&amp;","&amp;A28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(B6)-5&amp;",1,"&amp;B6&amp;","&amp;B17&amp;","&amp;B28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(C6)-5&amp;",2,"&amp;C6&amp;","&amp;C17&amp;","&amp;C28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(D6)-5&amp;",3,"&amp;D6&amp;","&amp;D17&amp;","&amp;D28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(E6)-5&amp;",4,"&amp;E6&amp;","&amp;E17&amp;","&amp;E28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(F6)-5&amp;",5,"&amp;F6&amp;","&amp;F17&amp;","&amp;F28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(G6)-5&amp;",6,"&amp;G6&amp;","&amp;G17&amp;","&amp;G28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(H6)-5&amp;",7,"&amp;H6&amp;","&amp;H17&amp;","&amp;H28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(I6)-5&amp;",8,"&amp;I6&amp;","&amp;I17&amp;","&amp;I28&amp;"),("&amp;$L$3&amp;","&amp;$M$3&amp;","&amp;ROW(J6)-5&amp;",9,"&amp;J6&amp;","&amp;J17&amp;","&amp;J28&amp;");"</f>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,1,0,1,0,0),(0,1,1,1,1,101,0),(0,1,1,2,1,100,0),(0,1,1,3,1,104,0),(0,1,1,4,1,0,0),(0,1,1,5,1,0,0),(0,1,1,6,1,0,0),(0,1,1,7,1,0,0),(0,1,1,8,1,0,0),(0,1,1,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,2,0,1,0,0),(0,1,2,1,1,0,0),(0,1,2,2,1,0,0),(0,1,2,3,1,102,0),(0,1,2,4,1,102,0),(0,1,2,5,1,0,0),(0,1,2,6,1,0,0),(0,1,2,7,1,0,0),(0,1,2,8,1,101,0),(0,1,2,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,3,0,1,0,0),(0,1,3,1,1,0,0),(0,1,3,2,1,0,0),(0,1,3,3,1,101,0),(0,1,3,4,1,0,0),(0,1,3,5,1,0,0),(0,1,3,6,1,0,0),(0,1,3,7,1,0,0),(0,1,3,8,1,0,0),(0,1,3,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,4,0,1,0,0),(0,1,4,1,1,0,0),(0,1,4,2,1,0,0),(0,1,4,3,1,0,0),(0,1,4,4,1,0,0),(0,1,4,5,1,0,0),(0,1,4,6,1,0,0),(0,1,4,7,1,0,0),(0,1,4,8,1,101,0),(0,1,4,9,1,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,5,0,1,0,0),(0,1,5,1,1,0,0),(0,1,5,2,1,0,0),(0,1,5,3,7,0,0),(0,1,5,4,4,0,0),(0,1,5,5,4,103,0),(0,1,5,6,4,0,0),(0,1,5,7,4,0,0),(0,1,5,8,4,0,0),(0,1,5,9,4,0,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,6,0,1,0,0),(0,1,6,1,1,0,0),(0,1,6,2,1,0,0),(0,1,6,3,3,0,0),(0,1,6,4,2,101,0),(0,1,6,5,2,102,0),(0,1,6,6,2,104,0),(0,1,6,7,2,0,0),(0,1,6,8,2,0,0),(0,1,6,9,2,0,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,7,0,1,0,0),(0,1,7,1,1,0,0),(0,1,7,2,1,0,0),(0,1,7,3,3,0,0),(0,1,7,4,2,0,0),(0,1,7,5,2,102,0),(0,1,7,6,2,0,0),(0,1,7,7,2,0,0),(0,1,7,8,2,0,0),(0,1,7,9,2,0,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,8,0,1,0,0),(0,1,8,1,1,103,0),(0,1,8,2,1,0,0),(0,1,8,3,3,0,0),(0,1,8,4,2,0,0),(0,1,8,5,2,0,0),(0,1,8,6,2,0,0),(0,1,8,7,2,0,0),(0,1,8,8,2,0,0),(0,1,8,9,2,0,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pola(planszax, planszay, x , y, podloze, rodzaj, stwor) VALUES (0,1,9,0,1,0,0),(0,1,9,1,1,0,0),(0,1,9,2,1,0,0),(0,1,9,3,3,0,0),(0,1,9,4,2,0,0),(0,1,9,5,2,0,0),(0,1,9,6,2,0,0),(0,1,9,7,2,0,0),(0,1,9,8,2,0,0),(0,1,9,9,2,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2">
+        <v>101</v>
+      </c>
+      <c r="G16" s="2">
+        <v>102</v>
+      </c>
+      <c r="H16" s="2">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2">
+        <v>102</v>
+      </c>
+      <c r="J16" s="3">
+        <v>101</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>102</v>
+      </c>
+      <c r="E18" s="5">
+        <v>102</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>101</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>101</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>101</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>103</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>101</v>
+      </c>
+      <c r="F22" s="5">
+        <v>102</v>
+      </c>
+      <c r="G22" s="5">
+        <v>104</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>102</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>103</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A27:J36">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>A16&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:J25">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CStrona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5744,818 +6945,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>A1&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CStrona &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="3.25" customWidth="1"/>
-    <col min="11" max="16" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>101</v>
-      </c>
-      <c r="B1" s="2">
-        <v>103</v>
-      </c>
-      <c r="C1" s="2">
-        <v>103</v>
-      </c>
-      <c r="D1" s="2">
-        <v>102</v>
-      </c>
-      <c r="E1" s="2">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>103</v>
-      </c>
-      <c r="I1" s="2">
-        <v>102</v>
-      </c>
-      <c r="J1" s="3">
-        <v>100</v>
-      </c>
-      <c r="M1" s="11">
-        <v>100</v>
-      </c>
-      <c r="P1" t="str">
-        <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,0,0,101,0),(0,2,0,1,103,0),(0,2,0,2,103,0),(0,2,0,3,102,0),(0,2,0,4,100,0),(0,2,0,5,103,0),(0,2,0,6,103,0),(0,2,0,7,103,0),(0,2,0,8,102,0),(0,2,0,9,100,0);</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>101</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
-        <v>101</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>102</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,1,0,0,0),(0,2,1,1,0,0),(0,2,1,2,0,0),(0,2,1,3,101,0),(0,2,1,4,100,0),(0,2,1,5,101,0),(0,2,1,6,0,3),(0,2,1,7,0,0),(0,2,1,8,0,0),(0,2,1,9,102,0);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>103</v>
-      </c>
-      <c r="F3" s="5">
-        <v>103</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>103</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,2,0,0,0),(0,2,2,1,0,0),(0,2,2,2,0,0),(0,2,2,3,0,0),(0,2,2,4,103,0),(0,2,2,5,103,0),(0,2,2,6,0,3),(0,2,2,7,0,0),(0,2,2,8,0,0),(0,2,2,9,103,0);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>102</v>
-      </c>
-      <c r="D4" s="5">
-        <v>101</v>
-      </c>
-      <c r="E4" s="5">
-        <v>102</v>
-      </c>
-      <c r="F4" s="5">
-        <v>103</v>
-      </c>
-      <c r="G4" s="5">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>102</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,3,0,0,0),(0,2,3,1,0,0),(0,2,3,2,102,0),(0,2,3,3,101,0),(0,2,3,4,102,0),(0,2,3,5,103,0),(0,2,3,6,103,0),(0,2,3,7,0,0),(0,2,3,8,0,0),(0,2,3,9,102,0);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>103</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,4,0,0,0),(0,2,4,1,0,0),(0,2,4,2,0,0),(0,2,4,3,0,0),(0,2,4,4,103,0),(0,2,4,5,0,0),(0,2,4,6,0,0),(0,2,4,7,0,0),(0,2,4,8,0,0),(0,2,4,9,102,0);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>102</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,5,0,0,0),(0,2,5,1,0,0),(0,2,5,2,0,0),(0,2,5,3,0,0),(0,2,5,4,102,0),(0,2,5,5,0,0),(0,2,5,6,0,0),(0,2,5,7,0,0),(0,2,5,8,0,0),(0,2,5,9,100,0);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>103</v>
-      </c>
-      <c r="H7" s="5">
-        <v>101</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>103</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,6,0,0,0),(0,2,6,1,0,0),(0,2,6,2,101,0),(0,2,6,3,0,0),(0,2,6,4,0,0),(0,2,6,5,0,0),(0,2,6,6,103,0),(0,2,6,7,101,0),(0,2,6,8,0,0),(0,2,6,9,103,0);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>102</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,7,0,0,0),(0,2,7,1,0,0),(0,2,7,2,0,0),(0,2,7,3,0,0),(0,2,7,4,0,0),(0,2,7,5,0,0),(0,2,7,6,0,0),(0,2,7,7,0,0),(0,2,7,8,0,0),(0,2,7,9,102,0);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>104</v>
-      </c>
-      <c r="D9" s="5">
-        <v>103</v>
-      </c>
-      <c r="E9" s="5">
-        <v>101</v>
-      </c>
-      <c r="F9" s="5">
-        <v>101</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>102</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,8,0,0,0),(0,2,8,1,0,0),(0,2,8,2,104,0),(0,2,8,3,103,0),(0,2,8,4,101,0),(0,2,8,5,101,0),(0,2,8,6,0,0),(0,2,8,7,0,0),(0,2,8,8,0,0),(0,2,8,9,102,0);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>0</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>103</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,9,0,0,0),(0,2,9,1,0,0),(0,2,9,2,0,0),(0,2,9,3,0,0),(0,2,9,4,0,0),(0,2,9,5,0,0),(0,2,9,6,0,0),(0,2,9,7,0,0),(0,2,9,8,0,0),(0,2,9,9,103,0);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>0</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6581,64 +6976,64 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2">
         <v>102</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
       <c r="E1" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,0,0,102,0),(1,0,0,1,0,0),(1,0,0,2,0,0),(1,0,0,3,0,0),(1,0,0,4,0,0),(1,0,0,5,0,0),(1,0,0,6,0,0),(1,0,0,7,0,0),(1,0,0,8,0,0),(1,0,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,0,0,101,0),(0,2,0,1,103,0),(0,2,0,2,103,0),(0,2,0,3,102,0),(0,2,0,4,100,0),(0,2,0,5,103,0),(0,2,0,6,103,0),(0,2,0,7,103,0),(0,2,0,8,102,0),(0,2,0,9,100,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G2" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -6647,52 +7042,52 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,1,0,100,0),(1,0,1,1,0,0),(1,0,1,2,0,0),(1,0,1,3,0,0),(1,0,1,4,0,0),(1,0,1,5,0,0),(1,0,1,6,104,0),(1,0,1,7,0,0),(1,0,1,8,0,0),(1,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,1,0,0,0),(0,2,1,1,0,0),(0,2,1,2,0,0),(0,2,1,3,101,0),(0,2,1,4,100,0),(0,2,1,5,101,0),(0,2,1,6,0,3),(0,2,1,7,0,0),(0,2,1,8,0,0),(0,2,1,9,102,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>103</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>103</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>101</v>
-      </c>
       <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>103</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,2,0,102,0),(1,0,2,1,103,0),(1,0,2,2,0,0),(1,0,2,3,103,0),(1,0,2,4,0,0),(1,0,2,5,101,0),(1,0,2,6,103,0),(1,0,2,7,0,0),(1,0,2,8,0,0),(1,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,2,0,0,0),(0,2,2,1,0,0),(0,2,2,2,0,0),(0,2,2,3,0,0),(0,2,2,4,103,0),(0,2,2,5,103,0),(0,2,2,6,0,3),(0,2,2,7,0,0),(0,2,2,8,0,0),(0,2,2,9,103,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -6704,13 +7099,13 @@
         <v>101</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -6719,16 +7114,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,3,0,103,0),(1,0,3,1,0,0),(1,0,3,2,102,0),(1,0,3,3,101,0),(1,0,3,4,100,0),(1,0,3,5,100,0),(1,0,3,6,101,0),(1,0,3,7,0,0),(1,0,3,8,0,0),(1,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,3,0,0,0),(0,2,3,1,0,0),(0,2,3,2,102,0),(0,2,3,3,101,0),(0,2,3,4,102,0),(0,2,3,5,103,0),(0,2,3,6,103,0),(0,2,3,7,0,0),(0,2,3,8,0,0),(0,2,3,9,102,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -6737,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -6755,22 +7150,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,4,0,101,0),(1,0,4,1,0,0),(1,0,4,2,0,0),(1,0,4,3,100,0),(1,0,4,4,0,0),(1,0,4,5,0,0),(1,0,4,6,0,2),(1,0,4,7,0,0),(1,0,4,8,0,0),(1,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,4,0,0,0),(0,2,4,1,0,0),(0,2,4,2,0,0),(0,2,4,3,0,0),(0,2,4,4,103,0),(0,2,4,5,0,0),(0,2,4,6,0,0),(0,2,4,7,0,0),(0,2,4,8,0,0),(0,2,4,9,102,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -6779,118 +7174,118 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>100</v>
-      </c>
-      <c r="G6" s="5">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,5,0,101,0),(1,0,5,1,103,0),(1,0,5,2,0,0),(1,0,5,3,0,0),(1,0,5,4,0,0),(1,0,5,5,100,0),(1,0,5,6,104,0),(1,0,5,7,0,0),(1,0,5,8,0,0),(1,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,5,0,0,0),(0,2,5,1,0,0),(0,2,5,2,0,0),(0,2,5,3,0,0),(0,2,5,4,102,0),(0,2,5,5,0,0),(0,2,5,6,0,0),(0,2,5,7,0,0),(0,2,5,8,0,0),(0,2,5,9,100,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>101</v>
       </c>
       <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5">
         <v>101</v>
       </c>
-      <c r="E7" s="5">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>103</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,6,0,103,0),(1,0,6,1,101,0),(1,0,6,2,101,0),(1,0,6,3,101,0),(1,0,6,4,103,0),(1,0,6,5,0,0),(1,0,6,6,0,0),(1,0,6,7,0,0),(1,0,6,8,0,0),(1,0,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,6,0,0,0),(0,2,6,1,0,0),(0,2,6,2,101,0),(0,2,6,3,0,0),(0,2,6,4,0,0),(0,2,6,5,0,0),(0,2,6,6,103,0),(0,2,6,7,101,0),(0,2,6,8,0,0),(0,2,6,9,103,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>102</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,7,0,103,0),(1,0,7,1,101,0),(1,0,7,2,0,0),(1,0,7,3,102,0),(1,0,7,4,0,0),(1,0,7,5,102,0),(1,0,7,6,0,0),(1,0,7,7,0,0),(1,0,7,8,0,0),(1,0,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,7,0,0,0),(0,2,7,1,0,0),(0,2,7,2,0,0),(0,2,7,3,0,0),(0,2,7,4,0,0),(0,2,7,5,0,0),(0,2,7,6,0,0),(0,2,7,7,0,0),(0,2,7,8,0,0),(0,2,7,9,102,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>104</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -6899,19 +7294,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,8,0,104,0),(1,0,8,1,0,0),(1,0,8,2,0,0),(1,0,8,3,0,0),(1,0,8,4,0,0),(1,0,8,5,0,0),(1,0,8,6,0,0),(1,0,8,7,0,0),(1,0,8,8,101,0),(1,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,8,0,0,0),(0,2,8,1,0,0),(0,2,8,2,104,0),(0,2,8,3,103,0),(0,2,8,4,101,0),(0,2,8,5,101,0),(0,2,8,6,0,0),(0,2,8,7,0,0),(0,2,8,8,0,0),(0,2,8,9,102,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -6938,11 +7333,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,9,0,102,0),(1,0,9,1,0,0),(1,0,9,2,0,0),(1,0,9,3,0,0),(1,0,9,4,0,0),(1,0,9,5,0,0),(1,0,9,6,0,0),(1,0,9,7,0,0),(1,0,9,8,0,0),(1,0,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (0,2,9,0,0,0),(0,2,9,1,0,0),(0,2,9,2,0,0),(0,2,9,3,0,0),(0,2,9,4,0,0),(0,2,9,5,0,0),(0,2,9,6,0,0),(0,2,9,7,0,0),(0,2,9,8,0,0),(0,2,9,9,103,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6958,10 +7353,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7036,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -7074,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -7150,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -7356,12 +7751,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7387,7 +7782,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -7421,30 +7816,30 @@
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,0,0,0,0),(1,1,0,1,0,0),(1,1,0,2,0,0),(1,1,0,3,0,0),(1,1,0,4,0,0),(1,1,0,5,0,0),(1,1,0,6,0,0),(1,1,0,7,0,0),(1,1,0,8,0,0),(1,1,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,0,0,102,0),(1,0,0,1,0,0),(1,0,0,2,0,0),(1,0,0,3,0,0),(1,0,0,4,0,0),(1,0,0,5,0,0),(1,0,0,6,0,0),(1,0,0,7,0,0),(1,0,0,8,0,0),(1,0,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -7457,15 +7852,15 @@
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,1,0,0,0),(1,1,1,1,108,0),(1,1,1,2,103,0),(1,1,1,3,100,0),(1,1,1,4,101,0),(1,1,1,5,0,0),(1,1,1,6,0,0),(1,1,1,7,0,0),(1,1,1,8,0,0),(1,1,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,1,0,100,0),(1,0,1,1,0,0),(1,0,1,2,0,0),(1,0,1,3,0,0),(1,0,1,4,0,0),(1,0,1,5,0,0),(1,0,1,6,104,0),(1,0,1,7,0,0),(1,0,1,8,0,0),(1,0,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -7477,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -7493,30 +7888,30 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,2,0,0,0),(1,1,2,1,108,0),(1,1,2,2,0,0),(1,1,2,3,103,0),(1,1,2,4,0,0),(1,1,2,5,0,0),(1,1,2,6,0,0),(1,1,2,7,0,0),(1,1,2,8,0,0),(1,1,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,2,0,102,0),(1,0,2,1,103,0),(1,0,2,2,0,0),(1,0,2,3,103,0),(1,0,2,4,0,0),(1,0,2,5,101,0),(1,0,2,6,103,0),(1,0,2,7,0,0),(1,0,2,8,0,0),(1,0,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -7529,12 +7924,12 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,3,0,0,0),(1,1,3,1,0,0),(1,1,3,2,0,0),(1,1,3,3,104,0),(1,1,3,4,0,0),(1,1,3,5,0,0),(1,1,3,6,103,0),(1,1,3,7,0,0),(1,1,3,8,0,0),(1,1,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,3,0,103,0),(1,0,3,1,0,0),(1,0,3,2,102,0),(1,0,3,3,101,0),(1,0,3,4,100,0),(1,0,3,5,100,0),(1,0,3,6,101,0),(1,0,3,7,0,0),(1,0,3,8,0,0),(1,0,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -7543,19 +7938,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -7568,15 +7963,15 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,4,0,0,0),(1,1,4,1,0,0),(1,1,4,2,0,0),(1,1,4,3,0,0),(1,1,4,4,0,0),(1,1,4,5,100,0),(1,1,4,6,102,0),(1,1,4,7,102,0),(1,1,4,8,0,0),(1,1,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,4,0,101,0),(1,0,4,1,0,0),(1,0,4,2,0,0),(1,0,4,3,100,0),(1,0,4,4,0,0),(1,0,4,5,0,0),(1,0,4,6,0,2),(1,0,4,7,0,0),(1,0,4,8,0,0),(1,0,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -7588,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5">
         <v>104</v>
       </c>
       <c r="H6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -7604,24 +7999,24 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,5,0,0,0),(1,1,5,1,0,0),(1,1,5,2,0,0),(1,1,5,3,0,0),(1,1,5,4,0,0),(1,1,5,5,0,0),(1,1,5,6,104,0),(1,1,5,7,103,0),(1,1,5,8,0,0),(1,1,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,5,0,101,0),(1,0,5,1,103,0),(1,0,5,2,0,0),(1,0,5,3,0,0),(1,0,5,4,0,0),(1,0,5,5,100,0),(1,0,5,6,104,0),(1,0,5,7,0,0),(1,0,5,8,0,0),(1,0,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -7630,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -7640,33 +8035,33 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,6,0,0,0),(1,1,6,1,0,0),(1,1,6,2,0,0),(1,1,6,3,108,0),(1,1,6,4,104,0),(1,1,6,5,0,3),(1,1,6,6,0,0),(1,1,6,7,103,0),(1,1,6,8,0,0),(1,1,6,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,6,0,103,0),(1,0,6,1,101,0),(1,0,6,2,101,0),(1,0,6,3,101,0),(1,0,6,4,103,0),(1,0,6,5,0,0),(1,0,6,6,0,0),(1,0,6,7,0,0),(1,0,6,8,0,0),(1,0,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -7676,12 +8071,12 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,7,0,0,0),(1,1,7,1,0,0),(1,1,7,2,0,0),(1,1,7,3,0,0),(1,1,7,4,103,0),(1,1,7,5,102,0),(1,1,7,6,102,0),(1,1,7,7,103,0),(1,1,7,8,0,0),(1,1,7,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,7,0,103,0),(1,0,7,1,101,0),(1,0,7,2,0,0),(1,0,7,3,102,0),(1,0,7,4,0,0),(1,0,7,5,102,0),(1,0,7,6,0,0),(1,0,7,7,0,0),(1,0,7,8,0,0),(1,0,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -7705,19 +8100,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,8,0,0,0),(1,1,8,1,0,0),(1,1,8,2,0,0),(1,1,8,3,0,0),(1,1,8,4,0,0),(1,1,8,5,0,0),(1,1,8,6,0,0),(1,1,8,7,0,0),(1,1,8,8,0,0),(1,1,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,8,0,104,0),(1,0,8,1,0,0),(1,0,8,2,0,0),(1,0,8,3,0,0),(1,0,8,4,0,0),(1,0,8,5,0,0),(1,0,8,6,0,0),(1,0,8,7,0,0),(1,0,8,8,101,0),(1,0,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -7748,7 +8143,7 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,9,0,0,0),(1,1,9,1,0,0),(1,1,9,2,0,0),(1,1,9,3,0,0),(1,1,9,4,0,0),(1,1,9,5,0,0),(1,1,9,6,0,0),(1,1,9,7,0,0),(1,1,9,8,0,0),(1,1,9,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,0,9,0,102,0),(1,0,9,1,0,0),(1,0,9,2,0,0),(1,0,9,3,0,0),(1,0,9,4,0,0),(1,0,9,5,0,0),(1,0,9,6,0,0),(1,0,9,7,0,0),(1,0,9,8,0,0),(1,0,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7767,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7956,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -8023,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -8162,12 +8557,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8220,14 +8615,14 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,0,0,0,0),(1,2,0,1,0,0),(1,2,0,2,0,0),(1,2,0,3,0,0),(1,2,0,4,0,0),(1,2,0,5,0,0),(1,2,0,6,0,0),(1,2,0,7,0,0),(1,2,0,8,0,0),(1,2,0,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,0,0,0,0),(1,1,0,1,0,0),(1,1,0,2,0,0),(1,1,0,3,0,0),(1,1,0,4,0,0),(1,1,0,5,0,0),(1,1,0,6,0,0),(1,1,0,7,0,0),(1,1,0,8,0,0),(1,1,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8235,16 +8630,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -8259,11 +8654,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,1,0,0,0),(1,2,1,1,0,0),(1,2,1,2,0,0),(1,2,1,3,0,0),(1,2,1,4,0,0),(1,2,1,5,0,0),(1,2,1,6,0,0),(1,2,1,7,0,0),(1,2,1,8,0,1),(1,2,1,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,1,0,0,0),(1,1,1,1,108,0),(1,1,1,2,103,0),(1,1,1,3,100,0),(1,1,1,4,101,0),(1,1,1,5,0,0),(1,1,1,6,0,0),(1,1,1,7,0,0),(1,1,1,8,0,0),(1,1,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8271,22 +8666,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -8295,11 +8690,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,2,0,0,0),(1,2,2,1,0,0),(1,2,2,2,0,0),(1,2,2,3,0,0),(1,2,2,4,0,0),(1,2,2,5,106,0),(1,2,2,6,107,0),(1,2,2,7,0,0),(1,2,2,8,0,0),(1,2,2,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,2,0,0,0),(1,1,2,1,108,0),(1,1,2,2,0,0),(1,1,2,3,103,0),(1,1,2,4,0,0),(1,1,2,5,0,0),(1,1,2,6,0,0),(1,1,2,7,0,0),(1,1,2,8,0,0),(1,1,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8313,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -8322,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -8331,11 +8726,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,3,0,0,0),(1,2,3,1,0,0),(1,2,3,2,0,0),(1,2,3,3,0,0),(1,2,3,4,0,0),(1,2,3,5,0,0),(1,2,3,6,0,0),(1,2,3,7,0,0),(1,2,3,8,0,0),(1,2,3,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,3,0,0,0),(1,1,3,1,0,0),(1,1,3,2,0,0),(1,1,3,3,104,0),(1,1,3,4,0,0),(1,1,3,5,0,0),(1,1,3,6,103,0),(1,1,3,7,0,0),(1,1,3,8,0,0),(1,1,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8355,26 +8750,26 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,4,0,0,0),(1,2,4,1,0,0),(1,2,4,2,0,0),(1,2,4,3,0,0),(1,2,4,4,0,1),(1,2,4,5,0,0),(1,2,4,6,0,0),(1,2,4,7,0,0),(1,2,4,8,0,0),(1,2,4,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,4,0,0,0),(1,1,4,1,0,0),(1,1,4,2,0,0),(1,1,4,3,0,0),(1,1,4,4,0,0),(1,1,4,5,100,0),(1,1,4,6,102,0),(1,1,4,7,102,0),(1,1,4,8,0,0),(1,1,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8397,20 +8792,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,5,0,0,0),(1,2,5,1,0,0),(1,2,5,2,0,0),(1,2,5,3,0,0),(1,2,5,4,0,0),(1,2,5,5,0,0),(1,2,5,6,0,0),(1,2,5,7,0,0),(1,2,5,8,0,0),(1,2,5,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,5,0,0,0),(1,1,5,1,0,0),(1,1,5,2,0,0),(1,1,5,3,0,0),(1,1,5,4,0,0),(1,1,5,5,0,0),(1,1,5,6,104,0),(1,1,5,7,103,0),(1,1,5,8,0,0),(1,1,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8418,16 +8813,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -8436,17 +8831,17 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,6,0,0,0),(1,2,6,1,109,0),(1,2,6,2,110,0),(1,2,6,3,111,0),(1,2,6,4,0,0),(1,2,6,5,0,0),(1,2,6,6,0,0),(1,2,6,7,0,0),(1,2,6,8,0,1),(1,2,6,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,6,0,0,0),(1,1,6,1,0,0),(1,1,6,2,0,0),(1,1,6,3,108,0),(1,1,6,4,104,0),(1,1,6,5,0,3),(1,1,6,6,0,0),(1,1,6,7,103,0),(1,1,6,8,0,0),(1,1,6,9,0,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8463,26 +8858,26 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,7,0,0,0),(1,2,7,1,0,0),(1,2,7,2,0,0),(1,2,7,3,0,0),(1,2,7,4,0,1),(1,2,7,5,0,0),(1,2,7,6,0,0),(1,2,7,7,0,0),(1,2,7,8,0,0),(1,2,7,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,7,0,0,0),(1,1,7,1,0,0),(1,1,7,2,0,0),(1,1,7,3,0,0),(1,1,7,4,103,0),(1,1,7,5,102,0),(1,1,7,6,102,0),(1,1,7,7,103,0),(1,1,7,8,0,0),(1,1,7,9,0,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8514,11 +8909,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,8,0,0,0),(1,2,8,1,0,0),(1,2,8,2,0,0),(1,2,8,3,0,0),(1,2,8,4,0,0),(1,2,8,5,0,0),(1,2,8,6,0,0),(1,2,8,7,0,0),(1,2,8,8,0,0),(1,2,8,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,8,0,0,0),(1,1,8,1,0,0),(1,1,8,2,0,0),(1,1,8,3,0,0),(1,1,8,4,0,0),(1,1,8,5,0,0),(1,1,8,6,0,0),(1,1,8,7,0,0),(1,1,8,8,0,0),(1,1,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8550,11 +8945,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,9,0,0,0),(1,2,9,1,0,0),(1,2,9,2,0,0),(1,2,9,3,0,0),(1,2,9,4,0,0),(1,2,9,5,0,0),(1,2,9,6,0,0),(1,2,9,7,0,0),(1,2,9,8,0,0),(1,2,9,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,1,9,0,0,0),(1,1,9,1,0,0),(1,1,9,2,0,0),(1,1,9,3,0,0),(1,1,9,4,0,0),(1,1,9,5,0,0),(1,1,9,6,0,0),(1,1,9,7,0,0),(1,1,9,8,0,0),(1,1,9,9,0,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -8573,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -8654,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -8756,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -8811,9 +9206,6 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -8832,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -8841,13 +9233,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8864,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -8880,9 +9269,6 @@
       </c>
       <c r="J22" s="6">
         <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8977,12 +9363,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9008,7 +9394,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -9035,19 +9421,19 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M1" s="11">
         <v>100</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,0,0,102,0),(2,0,0,1,0,0),(2,0,0,2,0,0),(2,0,0,3,0,0),(2,0,0,4,0,0),(2,0,0,5,0,0),(2,0,0,6,0,0),(2,0,0,7,0,0),(2,0,0,8,0,0),(2,0,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,0,0,0,0),(1,2,0,1,0,0),(1,2,0,2,0,0),(1,2,0,3,0,0),(1,2,0,4,0,0),(1,2,0,5,0,0),(1,2,0,6,0,0),(1,2,0,7,0,0),(1,2,0,8,0,0),(1,2,0,9,101,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -9074,16 +9460,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,1,0,101,0),(2,0,1,1,0,0),(2,0,1,2,0,0),(2,0,1,3,0,0),(2,0,1,4,0,0),(2,0,1,5,0,0),(2,0,1,6,0,0),(2,0,1,7,0,0),(2,0,1,8,0,0),(2,0,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,1,0,0,0),(1,2,1,1,0,0),(1,2,1,2,0,0),(1,2,1,3,0,0),(1,2,1,4,0,0),(1,2,1,5,0,0),(1,2,1,6,0,0),(1,2,1,7,0,0),(1,2,1,8,0,1),(1,2,1,9,103,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -9098,10 +9484,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -9110,16 +9496,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,2,0,102,0),(2,0,2,1,0,0),(2,0,2,2,0,0),(2,0,2,3,0,0),(2,0,2,4,0,0),(2,0,2,5,0,0),(2,0,2,6,0,0),(2,0,2,7,0,0),(2,0,2,8,0,0),(2,0,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,2,0,0,0),(1,2,2,1,0,0),(1,2,2,2,0,0),(1,2,2,3,0,0),(1,2,2,4,0,0),(1,2,2,5,106,0),(1,2,2,6,107,0),(1,2,2,7,0,0),(1,2,2,8,0,0),(1,2,2,9,103,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -9134,112 +9520,112 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,3,0,101,0),(2,0,3,1,0,0),(2,0,3,2,0,0),(2,0,3,3,0,0),(2,0,3,4,0,0),(2,0,3,5,108,0),(2,0,3,6,103,0),(2,0,3,7,100,0),(2,0,3,8,0,0),(2,0,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,3,0,0,0),(1,2,3,1,0,0),(1,2,3,2,0,0),(1,2,3,3,0,0),(1,2,3,4,0,0),(1,2,3,5,0,0),(1,2,3,6,0,0),(1,2,3,7,0,0),(1,2,3,8,0,0),(1,2,3,9,102,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>100</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>100</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,4,0,101,0),(2,0,4,1,100,0),(2,0,4,2,0,0),(2,0,4,3,0,0),(2,0,4,4,0,4),(2,0,4,5,0,0),(2,0,4,6,100,0),(2,0,4,7,0,0),(2,0,4,8,0,0),(2,0,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,4,0,0,0),(1,2,4,1,0,0),(1,2,4,2,0,0),(1,2,4,3,0,0),(1,2,4,4,0,1),(1,2,4,5,0,0),(1,2,4,6,0,0),(1,2,4,7,0,0),(1,2,4,8,0,0),(1,2,4,9,100,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>102</v>
-      </c>
-      <c r="B6" s="5">
-        <v>102</v>
-      </c>
-      <c r="C6" s="5">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5">
-        <v>102</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5">
-        <v>101</v>
-      </c>
-      <c r="I6" s="5">
-        <v>102</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,5,0,102,0),(2,0,5,1,102,0),(2,0,5,2,102,0),(2,0,5,3,102,0),(2,0,5,4,0,0),(2,0,5,5,0,0),(2,0,5,6,103,0),(2,0,5,7,101,0),(2,0,5,8,102,0),(2,0,5,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,5,0,0,0),(1,2,5,1,0,0),(1,2,5,2,0,0),(1,2,5,3,0,0),(1,2,5,4,0,0),(1,2,5,5,0,0),(1,2,5,6,0,0),(1,2,5,7,0,0),(1,2,5,8,0,0),(1,2,5,9,102,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -9251,53 +9637,53 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,6,0,101,0),(2,0,6,1,103,0),(2,0,6,2,0,0),(2,0,6,3,102,0),(2,0,6,4,0,0),(2,0,6,5,0,0),(2,0,6,6,0,0),(2,0,6,7,104,0),(2,0,6,8,101,0),(2,0,6,9,101,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,6,0,0,0),(1,2,6,1,109,0),(1,2,6,2,110,0),(1,2,6,3,111,0),(1,2,6,4,0,0),(1,2,6,5,0,0),(1,2,6,6,0,0),(1,2,6,7,0,0),(1,2,6,8,0,1),(1,2,6,9,100,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>100</v>
-      </c>
-      <c r="C8" s="5">
-        <v>101</v>
-      </c>
-      <c r="D8" s="5">
-        <v>101</v>
-      </c>
-      <c r="E8" s="5">
-        <v>103</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6">
-        <v>104</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,7,0,102,0),(2,0,7,1,100,0),(2,0,7,2,101,0),(2,0,7,3,101,0),(2,0,7,4,103,0),(2,0,7,5,0,0),(2,0,7,6,0,0),(2,0,7,7,0,0),(2,0,7,8,100,0),(2,0,7,9,104,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,7,0,0,0),(1,2,7,1,0,0),(1,2,7,2,0,0),(1,2,7,3,0,0),(1,2,7,4,0,1),(1,2,7,5,0,0),(1,2,7,6,0,0),(1,2,7,7,0,0),(1,2,7,8,0,0),(1,2,7,9,100,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9305,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -9314,26 +9700,26 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>101</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,8,0,0,0),(2,0,8,1,104,0),(2,0,8,2,0,0),(2,0,8,3,0,0),(2,0,8,4,101,0),(2,0,8,5,0,0),(2,0,8,6,0,0),(2,0,8,7,0,0),(2,0,8,8,0,0),(2,0,8,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,8,0,0,0),(1,2,8,1,0,0),(1,2,8,2,0,0),(1,2,8,3,0,0),(1,2,8,4,0,0),(1,2,8,5,0,0),(1,2,8,6,0,0),(1,2,8,7,0,0),(1,2,8,8,0,0),(1,2,8,9,101,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9344,32 +9730,32 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>101</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>103</v>
-      </c>
-      <c r="F10" s="8">
-        <v>101</v>
-      </c>
-      <c r="G10" s="8">
-        <v>103</v>
-      </c>
-      <c r="H10" s="8">
-        <v>102</v>
-      </c>
-      <c r="I10" s="8">
-        <v>102</v>
-      </c>
-      <c r="J10" s="9">
-        <v>108</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,9,0,0,0),(2,0,9,1,0,0),(2,0,9,2,101,0),(2,0,9,3,0,0),(2,0,9,4,103,0),(2,0,9,5,101,0),(2,0,9,6,103,0),(2,0,9,7,102,0),(2,0,9,8,102,0),(2,0,9,9,108,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (1,2,9,0,0,0),(1,2,9,1,0,0),(1,2,9,2,0,0),(1,2,9,3,0,0),(1,2,9,4,0,0),(1,2,9,5,0,0),(1,2,9,6,0,0),(1,2,9,7,0,0),(1,2,9,8,0,0),(1,2,9,9,101,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -9385,10 +9771,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -9469,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -9571,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -9626,6 +10012,9 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -9653,10 +10042,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9673,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -9689,6 +10081,9 @@
       </c>
       <c r="J22" s="6">
         <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9783,12 +10178,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9814,7 +10209,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -9848,18 +10243,18 @@
       </c>
       <c r="P1" t="str">
         <f t="shared" ref="P1:P10" si="0">"INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES ("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(A1)-1&amp;",0,"&amp;A1&amp;","&amp;A15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(B1)-1&amp;",1,"&amp;B1&amp;","&amp;B15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(C1)-1&amp;",2,"&amp;C1&amp;","&amp;C15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(D1)-1&amp;",3,"&amp;D1&amp;","&amp;D15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(E1)-1&amp;",4,"&amp;E1&amp;","&amp;E15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(F1)-1&amp;",5,"&amp;F1&amp;","&amp;F15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(G1)-1&amp;",6,"&amp;G1&amp;","&amp;G15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(H1)-1&amp;",7,"&amp;H1&amp;","&amp;H15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(I1)-1&amp;",8,"&amp;I1&amp;","&amp;I15&amp;"),("&amp;$G$13&amp;","&amp;$H$13&amp;","&amp;ROW(J1)-1&amp;",9,"&amp;J1&amp;","&amp;J15&amp;");"</f>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,0,0,0,0),(2,1,0,1,0,0),(2,1,0,2,0,0),(2,1,0,3,0,0),(2,1,0,4,0,0),(2,1,0,5,0,0),(2,1,0,6,0,0),(2,1,0,7,0,0),(2,1,0,8,0,0),(2,1,0,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,0,0,102,0),(2,0,0,1,0,0),(2,0,0,2,0,0),(2,0,0,3,0,0),(2,0,0,4,0,0),(2,0,0,5,0,0),(2,0,0,6,0,0),(2,0,0,7,0,0),(2,0,0,8,0,0),(2,0,0,9,0,0);</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -9868,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -9884,12 +10279,12 @@
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,1,0,0,0),(2,1,1,1,0,0),(2,1,1,2,103,0),(2,1,1,3,0,0),(2,1,1,4,0,0),(2,1,1,5,102,0),(2,1,1,6,108,0),(2,1,1,7,0,0),(2,1,1,8,0,0),(2,1,1,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,1,0,101,0),(2,0,1,1,0,0),(2,0,1,2,0,0),(2,0,1,3,0,0),(2,0,1,4,0,0),(2,0,1,5,0,0),(2,0,1,6,0,0),(2,0,1,7,0,0),(2,0,1,8,0,0),(2,0,1,9,0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -9920,33 +10315,33 @@
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,2,0,0,0),(2,1,2,1,0,0),(2,1,2,2,0,0),(2,1,2,3,0,0),(2,1,2,4,0,0),(2,1,2,5,0,0),(2,1,2,6,0,0),(2,1,2,7,0,0),(2,1,2,8,0,0),(2,1,2,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,2,0,102,0),(2,0,2,1,0,0),(2,0,2,2,0,0),(2,0,2,3,0,0),(2,0,2,4,0,0),(2,0,2,5,0,0),(2,0,2,6,0,0),(2,0,2,7,0,0),(2,0,2,8,0,0),(2,0,2,9,0,0);</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>108</v>
       </c>
       <c r="G4" s="5">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5">
         <v>100</v>
-      </c>
-      <c r="H4" s="5">
-        <v>102</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -9956,33 +10351,33 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,3,0,0,0),(2,1,3,1,0,0),(2,1,3,2,100,0),(2,1,3,3,102,0),(2,1,3,4,102,0),(2,1,3,5,108,0),(2,1,3,6,100,0),(2,1,3,7,102,0),(2,1,3,8,0,0),(2,1,3,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,3,0,101,0),(2,0,3,1,0,0),(2,0,3,2,0,0),(2,0,3,3,0,0),(2,0,3,4,0,0),(2,0,3,5,108,0),(2,0,3,6,103,0),(2,0,3,7,100,0),(2,0,3,8,0,0),(2,0,3,9,0,0);</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
       <c r="H5" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -9995,90 +10390,90 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,4,0,0,0),(2,1,4,1,104,0),(2,1,4,2,100,0),(2,1,4,3,0,0),(2,1,4,4,0,0),(2,1,4,5,0,0),(2,1,4,6,0,0),(2,1,4,7,102,0),(2,1,4,8,0,0),(2,1,4,9,0,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,4,0,101,0),(2,0,4,1,100,0),(2,0,4,2,0,0),(2,0,4,3,0,0),(2,0,4,4,0,4),(2,0,4,5,0,0),(2,0,4,6,100,0),(2,0,4,7,0,0),(2,0,4,8,0,0),(2,0,4,9,0,0);</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>103</v>
       </c>
       <c r="H6" s="5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" s="5">
         <v>102</v>
       </c>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,5,0,0,0),(2,1,5,1,101,0),(2,1,5,2,101,0),(2,1,5,3,0,0),(2,1,5,4,0,0),(2,1,5,5,103,0),(2,1,5,6,103,0),(2,1,5,7,104,0),(2,1,5,8,102,0),(2,1,5,9,100,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,5,0,102,0),(2,0,5,1,102,0),(2,0,5,2,102,0),(2,0,5,3,102,0),(2,0,5,4,0,0),(2,0,5,5,0,0),(2,0,5,6,103,0),(2,0,5,7,101,0),(2,0,5,8,102,0),(2,0,5,9,0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>102</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>104</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>102</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="I7" s="5">
         <v>101</v>
       </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>106</v>
-      </c>
-      <c r="I7" s="5">
-        <v>107</v>
-      </c>
       <c r="J7" s="6">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,6,0,108,0),(2,1,6,1,104,0),(2,1,6,2,0,0),(2,1,6,3,0,0),(2,1,6,4,102,0),(2,1,6,5,101,0),(2,1,6,6,0,0),(2,1,6,7,106,0),(2,1,6,8,107,0),(2,1,6,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,6,0,101,0),(2,0,6,1,103,0),(2,0,6,2,0,0),(2,0,6,3,102,0),(2,0,6,4,0,0),(2,0,6,5,0,0),(2,0,6,6,0,0),(2,0,6,7,104,0),(2,0,6,8,101,0),(2,0,6,9,101,0);</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <v>102</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
         <v>101</v>
-      </c>
-      <c r="B8" s="5">
-        <v>104</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
       </c>
       <c r="D8" s="5">
         <v>101</v>
@@ -10087,23 +10482,23 @@
         <v>103</v>
       </c>
       <c r="F8" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="6">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,7,0,101,0),(2,1,7,1,104,0),(2,1,7,2,4,0),(2,1,7,3,101,0),(2,1,7,4,103,0),(2,1,7,5,103,0),(2,1,7,6,0,0),(2,1,7,7,105,0),(2,1,7,8,0,0),(2,1,7,9,102,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,7,0,102,0),(2,0,7,1,100,0),(2,0,7,2,101,0),(2,0,7,3,101,0),(2,0,7,4,103,0),(2,0,7,5,0,0),(2,0,7,6,0,0),(2,0,7,7,0,0),(2,0,7,8,100,0),(2,0,7,9,104,0);</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10111,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -10120,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -10135,34 +10530,34 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,8,0,0,0),(2,1,8,1,0,0),(2,1,8,2,0,0),(2,1,8,3,0,0),(2,1,8,4,2,0),(2,1,8,5,0,0),(2,1,8,6,0,0),(2,1,8,7,0,0),(2,1,8,8,0,0),(2,1,8,9,103,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,8,0,0,0),(2,0,8,1,104,0),(2,0,8,2,0,0),(2,0,8,3,0,0),(2,0,8,4,101,0),(2,0,8,5,0,0),(2,0,8,6,0,0),(2,0,8,7,0,0),(2,0,8,8,0,0),(2,0,8,9,0,0);</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B10" s="8">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
         <v>103</v>
       </c>
       <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
         <v>103</v>
-      </c>
-      <c r="G10" s="8">
-        <v>102</v>
       </c>
       <c r="H10" s="8">
         <v>102</v>
@@ -10171,11 +10566,11 @@
         <v>102</v>
       </c>
       <c r="J10" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,1,9,0,102,0),(2,1,9,1,103,0),(2,1,9,2,103,0),(2,1,9,3,103,0),(2,1,9,4,103,0),(2,1,9,5,103,0),(2,1,9,6,102,0),(2,1,9,7,102,0),(2,1,9,8,102,0),(2,1,9,9,104,0);</v>
+        <v>INSERT INTO pola(planszax, planszay, x , y, rodzaj, stwor) VALUES (2,0,9,0,0,0),(2,0,9,1,0,0),(2,0,9,2,101,0),(2,0,9,3,0,0),(2,0,9,4,103,0),(2,0,9,5,101,0),(2,0,9,6,103,0),(2,0,9,7,102,0),(2,0,9,8,102,0),(2,0,9,9,108,0);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -10194,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -10377,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -10589,12 +10984,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:J24">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
